--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_8_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_8_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>167334.2262966935</v>
+        <v>260241.6678453924</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10856277.26305465</v>
+        <v>10847243.02997658</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17483468.82626883</v>
+        <v>17481169.05998059</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5649040.927972768</v>
+        <v>5649997.001105314</v>
       </c>
     </row>
     <row r="11">
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="E11" t="n">
-        <v>157.1187419577134</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>157.1187419577134</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>21.12316271950942</v>
+        <v>21.12316271950937</v>
       </c>
       <c r="S11" t="n">
-        <v>117.2670251968445</v>
+        <v>117.2670251968447</v>
       </c>
       <c r="T11" t="n">
-        <v>157.1187419577134</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>132.995123426233</v>
       </c>
       <c r="D12" t="n">
-        <v>138.3901879163539</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.1187419577134</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.2469034849667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1496,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>32.07159191921397</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>151.3140530013673</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>157.1187419577134</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>157.1187419577134</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1572,28 +1572,28 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.177839155320683</v>
+        <v>9.17783915532064</v>
       </c>
       <c r="R13" t="n">
-        <v>135.9554396389582</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.1187419577134</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="V13" t="n">
-        <v>15.63938236800137</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>129.2123487610334</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>172.2828658022268</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>172.2828658022268</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>172.2828658022268</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>151.7467481986012</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>138.390187916354</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1688,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>138.390187916354</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>101.2441485021088</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.49807828706994</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>172.2828658022268</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>172.2828658022268</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="X15" t="n">
-        <v>35.6423067562484</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>157.1187419577135</v>
       </c>
     </row>
     <row r="16">
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>135.9554396389582</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>172.2828658022268</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="U16" t="n">
-        <v>172.2828658022268</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="V16" t="n">
-        <v>172.2828658022268</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="W16" t="n">
-        <v>151.7467481986012</v>
+        <v>2.434748277395846</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>187.5255871663199</v>
+        <v>196.1811739886817</v>
       </c>
       <c r="G17" t="n">
-        <v>182.55701200868</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>187.5255871663199</v>
+        <v>172.7963780492308</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>196.1811739886817</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>196.1811739886817</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1922,19 +1922,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0.9240538308498986</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1970,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>195.3449992187468</v>
       </c>
       <c r="U18" t="n">
-        <v>44.06500919293982</v>
+        <v>196.1811739886817</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>196.1811739886817</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2.673525841173107</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>22.48381968648303</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2046,25 +2046,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>2.217984498643361</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>187.5255871663199</v>
+        <v>196.1811739886817</v>
       </c>
       <c r="V19" t="n">
-        <v>165.1725371760946</v>
+        <v>196.1811739886817</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>196.1811739886817</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>6.396723986041374</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>187.5255871663198</v>
+        <v>172.7963780492308</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>196.1811739886817</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>187.5255871663198</v>
+        <v>196.1811739886817</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>196.1811739886817</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>20.88032722129022</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.10332478271065</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>25.91616879539016</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>149.4725570329162</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2222,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>187.5255871663198</v>
+        <v>196.1811739886817</v>
       </c>
       <c r="X21" t="n">
-        <v>187.5255871663198</v>
+        <v>196.1811739886817</v>
       </c>
       <c r="Y21" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>56.97945844363287</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2283,31 +2283,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.343082173845801</v>
+        <v>2.217984498643347</v>
       </c>
       <c r="R22" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>170.5783935505874</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>196.1811739886817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>196.1811739886817</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>196.1811739886817</v>
       </c>
     </row>
     <row r="23">
@@ -2320,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>19.98946990210323</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>32.55518202532696</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="24">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>109.3882658745777</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2459,10 +2459,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>107.3880719186411</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>79.63579206135118</v>
+        <v>235.8715405415671</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>244.8448976285501</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G26" t="n">
-        <v>143.5013688276108</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V26" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2633,28 +2633,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>134.8000523115419</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,25 +2684,25 @@
         <v>18.15252495527768</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T27" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>107.0223822227575</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>151.9896407219983</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>3.493216203336249</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>129.538278081653</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>19.9894699021032</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>23.79639304735091</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2885,10 +2885,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I30" t="n">
         <v>43.9218040015056</v>
@@ -2924,19 +2924,19 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>91.48504726605515</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>36.89123373870436</v>
       </c>
       <c r="T31" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="X31" t="n">
-        <v>20.64107630343887</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>130.9356567043869</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>263.713880001506</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>244.8448976285501</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>263.713880001506</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3119,16 +3119,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,25 +3158,25 @@
         <v>18.15252495527768</v>
       </c>
       <c r="S33" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>105.4630544267536</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>89.14525753718982</v>
       </c>
     </row>
     <row r="34">
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>263.7138800015061</v>
+        <v>246.902749641455</v>
       </c>
       <c r="V34" t="n">
-        <v>216.1063032873119</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,19 +3274,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>19.98946990210323</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>263.713880001506</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>32.55518202532676</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>263.713880001506</v>
       </c>
     </row>
     <row r="36">
@@ -3344,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>60.8010106541912</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I36" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,19 +3392,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>145.9872190714166</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>58.64530091590783</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T37" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>133.8901741090854</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>232.2791855053266</v>
+        <v>263.713880001506</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>263.7138800015061</v>
+        <v>263.713880001506</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>130.9356567043869</v>
       </c>
     </row>
     <row r="39">
@@ -3584,16 +3584,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>50.33534118268118</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3629,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>18.1525249552777</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U39" t="n">
-        <v>127.4695742187182</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T40" t="n">
-        <v>181.3033593560042</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>263.7138800015061</v>
+        <v>82.55234185561837</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>232.2791855053266</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>263.7138800015063</v>
+        <v>232.2791855053265</v>
       </c>
       <c r="W41" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3821,19 +3821,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>28.96739480956817</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3866,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>18.15252495527768</v>
+        <v>18.1525249552777</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>89.14525753719072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>97.42145953643551</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>92.94673944532975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T44" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>79.51149230610399</v>
       </c>
       <c r="X44" t="n">
-        <v>32.55518202532693</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="Y44" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>12.92983380141421</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4076,7 +4076,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I45" t="n">
-        <v>43.92180400150561</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>18.1525249552777</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4121,10 +4121,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>84.68080944124495</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>223.2143458795659</v>
+        <v>142.7788072341312</v>
       </c>
       <c r="U46" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>138.9339082820136</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>329.9810992711895</v>
+        <v>329.9810992711897</v>
       </c>
       <c r="C11" t="n">
-        <v>329.9810992711895</v>
+        <v>171.2752993139034</v>
       </c>
       <c r="D11" t="n">
-        <v>329.9810992711895</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="E11" t="n">
-        <v>171.2752993139033</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="F11" t="n">
-        <v>171.2752993139033</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="G11" t="n">
-        <v>12.56949935661707</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="H11" t="n">
-        <v>12.56949935661707</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="I11" t="n">
-        <v>12.56949935661707</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="J11" t="n">
-        <v>12.56949935661707</v>
+        <v>61.348353680367</v>
       </c>
       <c r="K11" t="n">
-        <v>52.78571257950537</v>
+        <v>101.5645669032554</v>
       </c>
       <c r="L11" t="n">
-        <v>139.5792431012689</v>
+        <v>188.3580974250191</v>
       </c>
       <c r="M11" t="n">
-        <v>267.8232065737888</v>
+        <v>316.6020608975391</v>
       </c>
       <c r="N11" t="n">
-        <v>402.7560998290628</v>
+        <v>451.5349541528134</v>
       </c>
       <c r="O11" t="n">
-        <v>516.8341434361913</v>
+        <v>565.612997759942</v>
       </c>
       <c r="P11" t="n">
-        <v>579.696113507103</v>
+        <v>628.4749678308539</v>
       </c>
       <c r="Q11" t="n">
-        <v>628.4749678308534</v>
+        <v>628.4749678308539</v>
       </c>
       <c r="R11" t="n">
-        <v>607.1384398313489</v>
+        <v>607.1384398313495</v>
       </c>
       <c r="S11" t="n">
-        <v>488.6868992284757</v>
+        <v>488.6868992284761</v>
       </c>
       <c r="T11" t="n">
-        <v>329.9810992711895</v>
+        <v>488.6868992284761</v>
       </c>
       <c r="U11" t="n">
-        <v>329.9810992711895</v>
+        <v>488.6868992284761</v>
       </c>
       <c r="V11" t="n">
-        <v>329.9810992711895</v>
+        <v>329.9810992711897</v>
       </c>
       <c r="W11" t="n">
-        <v>329.9810992711895</v>
+        <v>329.9810992711897</v>
       </c>
       <c r="X11" t="n">
-        <v>329.9810992711895</v>
+        <v>329.9810992711897</v>
       </c>
       <c r="Y11" t="n">
-        <v>329.9810992711895</v>
+        <v>329.9810992711897</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>311.063367916281</v>
+        <v>284.5311427012632</v>
       </c>
       <c r="C12" t="n">
-        <v>311.063367916281</v>
+        <v>150.1926341899167</v>
       </c>
       <c r="D12" t="n">
-        <v>171.2752993139033</v>
+        <v>150.1926341899167</v>
       </c>
       <c r="E12" t="n">
-        <v>12.56949935661707</v>
+        <v>150.1926341899167</v>
       </c>
       <c r="F12" t="n">
-        <v>12.56949935661707</v>
+        <v>150.1926341899167</v>
       </c>
       <c r="G12" t="n">
-        <v>12.56949935661707</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="H12" t="n">
-        <v>12.56949935661707</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="I12" t="n">
-        <v>12.56949935661707</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="J12" t="n">
-        <v>12.56949935661707</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="K12" t="n">
-        <v>51.41474465792123</v>
+        <v>51.41474465792135</v>
       </c>
       <c r="L12" t="n">
-        <v>149.9695119216955</v>
+        <v>149.9695119216958</v>
       </c>
       <c r="M12" t="n">
-        <v>284.335144962728</v>
+        <v>284.3351449627284</v>
       </c>
       <c r="N12" t="n">
-        <v>436.6656814086846</v>
+        <v>436.665681408685</v>
       </c>
       <c r="O12" t="n">
-        <v>553.798566872125</v>
+        <v>553.7985668721252</v>
       </c>
       <c r="P12" t="n">
-        <v>628.4749678308534</v>
+        <v>628.4749678308538</v>
       </c>
       <c r="Q12" t="n">
-        <v>628.4749678308534</v>
+        <v>628.4749678308539</v>
       </c>
       <c r="R12" t="n">
-        <v>628.4749678308534</v>
+        <v>596.0794204377084</v>
       </c>
       <c r="S12" t="n">
-        <v>628.4749678308534</v>
+        <v>443.2369426585495</v>
       </c>
       <c r="T12" t="n">
-        <v>628.4749678308534</v>
+        <v>443.2369426585495</v>
       </c>
       <c r="U12" t="n">
-        <v>469.7691678735672</v>
+        <v>443.2369426585495</v>
       </c>
       <c r="V12" t="n">
-        <v>469.7691678735672</v>
+        <v>443.2369426585495</v>
       </c>
       <c r="W12" t="n">
-        <v>311.063367916281</v>
+        <v>443.2369426585495</v>
       </c>
       <c r="X12" t="n">
-        <v>311.063367916281</v>
+        <v>443.2369426585495</v>
       </c>
       <c r="Y12" t="n">
-        <v>311.063367916281</v>
+        <v>443.2369426585495</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>307.3725404369205</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="C13" t="n">
-        <v>307.3725404369205</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="D13" t="n">
-        <v>307.3725404369205</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="E13" t="n">
-        <v>159.4594468545274</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="F13" t="n">
-        <v>12.56949935661707</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="G13" t="n">
-        <v>12.56949935661707</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="H13" t="n">
-        <v>12.56949935661707</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="I13" t="n">
-        <v>12.56949935661707</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="J13" t="n">
-        <v>12.56949935661707</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="K13" t="n">
-        <v>96.2679578032585</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="L13" t="n">
-        <v>251.8155123413947</v>
+        <v>168.1170538947534</v>
       </c>
       <c r="M13" t="n">
-        <v>365.5406633111497</v>
+        <v>323.6646084328897</v>
       </c>
       <c r="N13" t="n">
-        <v>521.0882178492859</v>
+        <v>479.212162971026</v>
       </c>
       <c r="O13" t="n">
-        <v>521.0882178492859</v>
+        <v>521.0882178492864</v>
       </c>
       <c r="P13" t="n">
-        <v>628.4749678308534</v>
+        <v>628.4749678308539</v>
       </c>
       <c r="Q13" t="n">
-        <v>619.2044232295194</v>
+        <v>619.2044232295199</v>
       </c>
       <c r="R13" t="n">
-        <v>481.8756963214809</v>
+        <v>619.2044232295199</v>
       </c>
       <c r="S13" t="n">
-        <v>323.1698963641946</v>
+        <v>619.2044232295199</v>
       </c>
       <c r="T13" t="n">
-        <v>323.1698963641946</v>
+        <v>619.2044232295199</v>
       </c>
       <c r="U13" t="n">
-        <v>323.1698963641946</v>
+        <v>460.4986232722335</v>
       </c>
       <c r="V13" t="n">
-        <v>307.3725404369205</v>
+        <v>301.7928233149472</v>
       </c>
       <c r="W13" t="n">
-        <v>307.3725404369205</v>
+        <v>143.0870233576609</v>
       </c>
       <c r="X13" t="n">
-        <v>307.3725404369205</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="Y13" t="n">
-        <v>307.3725404369205</v>
+        <v>12.56949935661708</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>689.131463208907</v>
+        <v>171.2752993139034</v>
       </c>
       <c r="C14" t="n">
-        <v>515.108366438981</v>
+        <v>171.2752993139034</v>
       </c>
       <c r="D14" t="n">
-        <v>515.108366438981</v>
+        <v>171.2752993139034</v>
       </c>
       <c r="E14" t="n">
-        <v>341.0852696690549</v>
+        <v>171.2752993139034</v>
       </c>
       <c r="F14" t="n">
-        <v>341.0852696690549</v>
+        <v>171.2752993139034</v>
       </c>
       <c r="G14" t="n">
-        <v>167.0621728991289</v>
+        <v>171.2752993139034</v>
       </c>
       <c r="H14" t="n">
-        <v>13.78262926417814</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="I14" t="n">
-        <v>13.78262926417814</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="J14" t="n">
-        <v>13.78262926417814</v>
+        <v>61.34835368036751</v>
       </c>
       <c r="K14" t="n">
-        <v>63.75466305836818</v>
+        <v>101.5645669032559</v>
       </c>
       <c r="L14" t="n">
-        <v>162.651151667497</v>
+        <v>188.3580974250195</v>
       </c>
       <c r="M14" t="n">
-        <v>304.3619880025747</v>
+        <v>316.6020608975394</v>
       </c>
       <c r="N14" t="n">
-        <v>452.9796622025048</v>
+        <v>451.5349541528136</v>
       </c>
       <c r="O14" t="n">
-        <v>579.9798564009712</v>
+        <v>565.6129977599421</v>
       </c>
       <c r="P14" t="n">
-        <v>681.8153513566832</v>
+        <v>628.4749678308539</v>
       </c>
       <c r="Q14" t="n">
-        <v>689.131463208907</v>
+        <v>628.4749678308539</v>
       </c>
       <c r="R14" t="n">
-        <v>689.131463208907</v>
+        <v>628.4749678308539</v>
       </c>
       <c r="S14" t="n">
-        <v>689.131463208907</v>
+        <v>628.4749678308539</v>
       </c>
       <c r="T14" t="n">
-        <v>689.131463208907</v>
+        <v>469.7691678735675</v>
       </c>
       <c r="U14" t="n">
-        <v>689.131463208907</v>
+        <v>311.0633679162812</v>
       </c>
       <c r="V14" t="n">
-        <v>689.131463208907</v>
+        <v>171.2752993139034</v>
       </c>
       <c r="W14" t="n">
-        <v>689.131463208907</v>
+        <v>171.2752993139034</v>
       </c>
       <c r="X14" t="n">
-        <v>689.131463208907</v>
+        <v>171.2752993139034</v>
       </c>
       <c r="Y14" t="n">
-        <v>689.131463208907</v>
+        <v>171.2752993139034</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>275.2869009384304</v>
+        <v>152.3575679589949</v>
       </c>
       <c r="C15" t="n">
-        <v>275.2869009384304</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="D15" t="n">
-        <v>275.2869009384304</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="E15" t="n">
-        <v>116.0494459329749</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="F15" t="n">
-        <v>116.0494459329749</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="G15" t="n">
-        <v>116.0494459329749</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="H15" t="n">
-        <v>13.78262926417814</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="I15" t="n">
-        <v>13.78262926417814</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="J15" t="n">
-        <v>13.78262926417814</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="K15" t="n">
-        <v>59.25415041181606</v>
+        <v>51.41474465792123</v>
       </c>
       <c r="L15" t="n">
-        <v>166.7187632842156</v>
+        <v>149.9695119216956</v>
       </c>
       <c r="M15" t="n">
-        <v>311.4817659002462</v>
+        <v>284.3351449627281</v>
       </c>
       <c r="N15" t="n">
-        <v>474.4848593555122</v>
+        <v>436.6656814086848</v>
       </c>
       <c r="O15" t="n">
-        <v>601.3810494292159</v>
+        <v>553.7985668721253</v>
       </c>
       <c r="P15" t="n">
-        <v>683.8933630858198</v>
+        <v>628.4749678308539</v>
       </c>
       <c r="Q15" t="n">
-        <v>689.131463208907</v>
+        <v>628.4749678308539</v>
       </c>
       <c r="R15" t="n">
-        <v>659.335424535099</v>
+        <v>628.4749678308539</v>
       </c>
       <c r="S15" t="n">
-        <v>659.335424535099</v>
+        <v>628.4749678308539</v>
       </c>
       <c r="T15" t="n">
-        <v>485.312327765173</v>
+        <v>628.4749678308539</v>
       </c>
       <c r="U15" t="n">
-        <v>311.289230995247</v>
+        <v>628.4749678308539</v>
       </c>
       <c r="V15" t="n">
-        <v>311.289230995247</v>
+        <v>628.4749678308539</v>
       </c>
       <c r="W15" t="n">
-        <v>311.289230995247</v>
+        <v>469.7691678735675</v>
       </c>
       <c r="X15" t="n">
-        <v>275.2869009384304</v>
+        <v>311.0633679162812</v>
       </c>
       <c r="Y15" t="n">
-        <v>275.2869009384304</v>
+        <v>152.3575679589949</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.78262926417814</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="C16" t="n">
-        <v>13.78262926417814</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="D16" t="n">
-        <v>13.78262926417814</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="E16" t="n">
-        <v>13.78262926417814</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="F16" t="n">
-        <v>13.78262926417814</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="G16" t="n">
-        <v>13.78262926417814</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="H16" t="n">
-        <v>13.78262926417814</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="I16" t="n">
-        <v>13.78262926417814</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="J16" t="n">
-        <v>13.78262926417814</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="K16" t="n">
-        <v>22.41466767689204</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="L16" t="n">
-        <v>190.161024167103</v>
+        <v>57.00537906705648</v>
       </c>
       <c r="M16" t="n">
-        <v>360.7210613113075</v>
+        <v>212.5529336051928</v>
       </c>
       <c r="N16" t="n">
-        <v>531.2810984555119</v>
+        <v>368.1004881433291</v>
       </c>
       <c r="O16" t="n">
-        <v>689.131463208907</v>
+        <v>521.0882178492864</v>
       </c>
       <c r="P16" t="n">
-        <v>689.131463208907</v>
+        <v>628.4749678308539</v>
       </c>
       <c r="Q16" t="n">
-        <v>689.131463208907</v>
+        <v>628.4749678308539</v>
       </c>
       <c r="R16" t="n">
-        <v>689.131463208907</v>
+        <v>491.1462409228153</v>
       </c>
       <c r="S16" t="n">
-        <v>689.131463208907</v>
+        <v>491.1462409228153</v>
       </c>
       <c r="T16" t="n">
-        <v>515.108366438981</v>
+        <v>332.440440965529</v>
       </c>
       <c r="U16" t="n">
-        <v>341.0852696690549</v>
+        <v>173.7346410082426</v>
       </c>
       <c r="V16" t="n">
-        <v>167.0621728991289</v>
+        <v>15.02884105095632</v>
       </c>
       <c r="W16" t="n">
-        <v>13.78262926417814</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="X16" t="n">
-        <v>13.78262926417814</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.78262926417814</v>
+        <v>12.56949935661708</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>388.8228542207803</v>
+        <v>213.8572959278639</v>
       </c>
       <c r="C17" t="n">
-        <v>388.8228542207803</v>
+        <v>213.8572959278639</v>
       </c>
       <c r="D17" t="n">
-        <v>388.8228542207803</v>
+        <v>213.8572959278639</v>
       </c>
       <c r="E17" t="n">
-        <v>388.8228542207803</v>
+        <v>213.8572959278639</v>
       </c>
       <c r="F17" t="n">
-        <v>199.4030692042955</v>
+        <v>15.69449391909454</v>
       </c>
       <c r="G17" t="n">
-        <v>15.00204697330559</v>
+        <v>15.69449391909454</v>
       </c>
       <c r="H17" t="n">
-        <v>15.00204697330559</v>
+        <v>15.69449391909454</v>
       </c>
       <c r="I17" t="n">
-        <v>15.00204697330559</v>
+        <v>15.69449391909454</v>
       </c>
       <c r="J17" t="n">
-        <v>21.03371160678478</v>
+        <v>24.24301691651544</v>
       </c>
       <c r="K17" t="n">
-        <v>80.81213159058939</v>
+        <v>87.79355515964346</v>
       </c>
       <c r="L17" t="n">
-        <v>191.8743094079184</v>
+        <v>203.5353792311763</v>
       </c>
       <c r="M17" t="n">
-        <v>347.1218190644753</v>
+        <v>363.9898970168365</v>
       </c>
       <c r="N17" t="n">
-        <v>509.4952041123828</v>
+        <v>531.6545450291355</v>
       </c>
       <c r="O17" t="n">
-        <v>649.4845259985582</v>
+        <v>676.6402564900332</v>
       </c>
       <c r="P17" t="n">
-        <v>734.4611726020265</v>
+        <v>765.8812059999686</v>
       </c>
       <c r="Q17" t="n">
-        <v>750.1023486652797</v>
+        <v>784.7246959547267</v>
       </c>
       <c r="R17" t="n">
-        <v>738.622248520147</v>
+        <v>784.7246959547267</v>
       </c>
       <c r="S17" t="n">
-        <v>578.2426392372651</v>
+        <v>784.7246959547267</v>
       </c>
       <c r="T17" t="n">
-        <v>388.8228542207803</v>
+        <v>610.1828999454027</v>
       </c>
       <c r="U17" t="n">
-        <v>388.8228542207803</v>
+        <v>412.0200979366333</v>
       </c>
       <c r="V17" t="n">
-        <v>388.8228542207803</v>
+        <v>213.8572959278639</v>
       </c>
       <c r="W17" t="n">
-        <v>388.8228542207803</v>
+        <v>213.8572959278639</v>
       </c>
       <c r="X17" t="n">
-        <v>388.8228542207803</v>
+        <v>213.8572959278639</v>
       </c>
       <c r="Y17" t="n">
-        <v>388.8228542207803</v>
+        <v>213.8572959278639</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>320.7740599518761</v>
+        <v>191.0809109081507</v>
       </c>
       <c r="C18" t="n">
-        <v>320.7740599518761</v>
+        <v>16.62788162702373</v>
       </c>
       <c r="D18" t="n">
-        <v>320.7740599518761</v>
+        <v>16.62788162702373</v>
       </c>
       <c r="E18" t="n">
-        <v>161.5366049464206</v>
+        <v>16.62788162702373</v>
       </c>
       <c r="F18" t="n">
-        <v>15.00204697330559</v>
+        <v>15.69449391909454</v>
       </c>
       <c r="G18" t="n">
-        <v>15.00204697330559</v>
+        <v>15.69449391909454</v>
       </c>
       <c r="H18" t="n">
-        <v>15.00204697330559</v>
+        <v>15.69449391909454</v>
       </c>
       <c r="I18" t="n">
-        <v>15.00204697330559</v>
+        <v>15.69449391909454</v>
       </c>
       <c r="J18" t="n">
-        <v>15.00204697330559</v>
+        <v>15.69449391909454</v>
       </c>
       <c r="K18" t="n">
-        <v>67.13418877024208</v>
+        <v>70.38870580829952</v>
       </c>
       <c r="L18" t="n">
-        <v>183.5548280772649</v>
+        <v>190.2543645334647</v>
       </c>
       <c r="M18" t="n">
-        <v>338.7690911140244</v>
+        <v>349.488802740128</v>
       </c>
       <c r="N18" t="n">
-        <v>512.5000587546602</v>
+        <v>527.3463476250104</v>
       </c>
       <c r="O18" t="n">
-        <v>649.2101578476349</v>
+        <v>667.8314587041676</v>
       </c>
       <c r="P18" t="n">
-        <v>739.5989987017063</v>
+        <v>761.2500794880862</v>
       </c>
       <c r="Q18" t="n">
-        <v>750.1023486652797</v>
+        <v>784.7246959547267</v>
       </c>
       <c r="R18" t="n">
-        <v>722.9192922843278</v>
+        <v>784.7246959547267</v>
       </c>
       <c r="S18" t="n">
-        <v>722.9192922843278</v>
+        <v>784.7246959547267</v>
       </c>
       <c r="T18" t="n">
-        <v>722.9192922843278</v>
+        <v>587.4065149256895</v>
       </c>
       <c r="U18" t="n">
-        <v>678.4091819884289</v>
+        <v>389.2437129169201</v>
       </c>
       <c r="V18" t="n">
-        <v>678.4091819884289</v>
+        <v>389.2437129169201</v>
       </c>
       <c r="W18" t="n">
-        <v>488.9893969719441</v>
+        <v>389.2437129169201</v>
       </c>
       <c r="X18" t="n">
-        <v>488.9893969719441</v>
+        <v>191.0809109081507</v>
       </c>
       <c r="Y18" t="n">
-        <v>488.9893969719441</v>
+        <v>191.0809109081507</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.00204697330559</v>
+        <v>187.9959015459505</v>
       </c>
       <c r="C19" t="n">
-        <v>15.00204697330559</v>
+        <v>187.9959015459505</v>
       </c>
       <c r="D19" t="n">
-        <v>15.00204697330559</v>
+        <v>185.2953703932504</v>
       </c>
       <c r="E19" t="n">
-        <v>15.00204697330559</v>
+        <v>185.2953703932504</v>
       </c>
       <c r="F19" t="n">
-        <v>15.00204697330559</v>
+        <v>38.40542289534002</v>
       </c>
       <c r="G19" t="n">
-        <v>15.00204697330559</v>
+        <v>38.40542289534002</v>
       </c>
       <c r="H19" t="n">
-        <v>15.00204697330559</v>
+        <v>38.40542289534002</v>
       </c>
       <c r="I19" t="n">
-        <v>15.00204697330559</v>
+        <v>38.40542289534002</v>
       </c>
       <c r="J19" t="n">
-        <v>15.00204697330559</v>
+        <v>15.69449391909454</v>
       </c>
       <c r="K19" t="n">
-        <v>106.7151088594234</v>
+        <v>108.9529863563138</v>
       </c>
       <c r="L19" t="n">
-        <v>216.0634826394161</v>
+        <v>283.8181835037427</v>
       </c>
       <c r="M19" t="n">
-        <v>401.7138139340728</v>
+        <v>478.0375457525375</v>
       </c>
       <c r="N19" t="n">
-        <v>587.3641452287295</v>
+        <v>620.1063396067112</v>
       </c>
       <c r="O19" t="n">
-        <v>750.1023486652797</v>
+        <v>784.7246959547267</v>
       </c>
       <c r="P19" t="n">
-        <v>750.1023486652797</v>
+        <v>784.7246959547267</v>
       </c>
       <c r="Q19" t="n">
-        <v>750.1023486652797</v>
+        <v>782.4843075722587</v>
       </c>
       <c r="R19" t="n">
-        <v>750.1023486652797</v>
+        <v>782.4843075722587</v>
       </c>
       <c r="S19" t="n">
-        <v>560.6825636487949</v>
+        <v>782.4843075722587</v>
       </c>
       <c r="T19" t="n">
-        <v>371.2627786323102</v>
+        <v>782.4843075722587</v>
       </c>
       <c r="U19" t="n">
-        <v>181.8429936158254</v>
+        <v>584.3215055634893</v>
       </c>
       <c r="V19" t="n">
-        <v>15.00204697330559</v>
+        <v>386.1587035547199</v>
       </c>
       <c r="W19" t="n">
-        <v>15.00204697330559</v>
+        <v>187.9959015459505</v>
       </c>
       <c r="X19" t="n">
-        <v>15.00204697330559</v>
+        <v>187.9959015459505</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.00204697330559</v>
+        <v>187.9959015459505</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>210.883169349428</v>
+        <v>388.3990919371879</v>
       </c>
       <c r="C20" t="n">
-        <v>210.883169349428</v>
+        <v>388.3990919371879</v>
       </c>
       <c r="D20" t="n">
-        <v>210.883169349428</v>
+        <v>388.3990919371879</v>
       </c>
       <c r="E20" t="n">
-        <v>204.4218319897903</v>
+        <v>388.3990919371879</v>
       </c>
       <c r="F20" t="n">
-        <v>15.00204697330559</v>
+        <v>213.8572959278639</v>
       </c>
       <c r="G20" t="n">
-        <v>15.00204697330559</v>
+        <v>15.69449391909454</v>
       </c>
       <c r="H20" t="n">
-        <v>15.00204697330559</v>
+        <v>15.69449391909454</v>
       </c>
       <c r="I20" t="n">
-        <v>15.00204697330559</v>
+        <v>15.69449391909454</v>
       </c>
       <c r="J20" t="n">
-        <v>21.03371160678478</v>
+        <v>24.24301691651567</v>
       </c>
       <c r="K20" t="n">
-        <v>80.81213159058939</v>
+        <v>87.79355515964363</v>
       </c>
       <c r="L20" t="n">
-        <v>191.8743094079184</v>
+        <v>203.5353792311762</v>
       </c>
       <c r="M20" t="n">
-        <v>347.1218190644753</v>
+        <v>363.9898970168365</v>
       </c>
       <c r="N20" t="n">
-        <v>509.4952041123826</v>
+        <v>531.6545450291355</v>
       </c>
       <c r="O20" t="n">
-        <v>649.484525998558</v>
+        <v>676.6402564900334</v>
       </c>
       <c r="P20" t="n">
-        <v>734.4611726020262</v>
+        <v>765.8812059999686</v>
       </c>
       <c r="Q20" t="n">
-        <v>750.1023486652794</v>
+        <v>784.7246959547267</v>
       </c>
       <c r="R20" t="n">
-        <v>750.1023486652794</v>
+        <v>784.7246959547267</v>
       </c>
       <c r="S20" t="n">
-        <v>589.7227393823974</v>
+        <v>784.7246959547267</v>
       </c>
       <c r="T20" t="n">
-        <v>589.7227393823974</v>
+        <v>784.7246959547267</v>
       </c>
       <c r="U20" t="n">
-        <v>400.3029543659127</v>
+        <v>586.5618939459573</v>
       </c>
       <c r="V20" t="n">
-        <v>400.3029543659127</v>
+        <v>388.3990919371879</v>
       </c>
       <c r="W20" t="n">
-        <v>400.3029543659127</v>
+        <v>388.3990919371879</v>
       </c>
       <c r="X20" t="n">
-        <v>400.3029543659127</v>
+        <v>388.3990919371879</v>
       </c>
       <c r="Y20" t="n">
-        <v>400.3029543659127</v>
+        <v>388.3990919371879</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>181.8429936158253</v>
+        <v>211.2387628176864</v>
       </c>
       <c r="C21" t="n">
-        <v>181.8429936158253</v>
+        <v>36.78573353655941</v>
       </c>
       <c r="D21" t="n">
-        <v>181.8429936158253</v>
+        <v>36.78573353655941</v>
       </c>
       <c r="E21" t="n">
-        <v>181.8429936158253</v>
+        <v>36.78573353655941</v>
       </c>
       <c r="F21" t="n">
-        <v>35.30843564271029</v>
+        <v>15.69449391909454</v>
       </c>
       <c r="G21" t="n">
-        <v>35.30843564271029</v>
+        <v>15.69449391909454</v>
       </c>
       <c r="H21" t="n">
-        <v>35.30843564271029</v>
+        <v>15.69449391909454</v>
       </c>
       <c r="I21" t="n">
-        <v>15.00204697330559</v>
+        <v>15.69449391909454</v>
       </c>
       <c r="J21" t="n">
-        <v>15.00204697330528</v>
+        <v>15.69449391909454</v>
       </c>
       <c r="K21" t="n">
-        <v>67.13418877024182</v>
+        <v>81.33464466475243</v>
       </c>
       <c r="L21" t="n">
-        <v>183.5548280772646</v>
+        <v>201.2003033899177</v>
       </c>
       <c r="M21" t="n">
-        <v>338.769091114024</v>
+        <v>360.434741596581</v>
       </c>
       <c r="N21" t="n">
-        <v>512.5000587546598</v>
+        <v>538.2922864814634</v>
       </c>
       <c r="O21" t="n">
-        <v>649.2101578476345</v>
+        <v>678.7773975606208</v>
       </c>
       <c r="P21" t="n">
-        <v>739.5989987017059</v>
+        <v>772.1960183445394</v>
       </c>
       <c r="Q21" t="n">
-        <v>750.1023486652794</v>
+        <v>784.7246959547267</v>
       </c>
       <c r="R21" t="n">
-        <v>750.1023486652794</v>
+        <v>758.5467476765548</v>
       </c>
       <c r="S21" t="n">
-        <v>750.1023486652794</v>
+        <v>607.5643668352252</v>
       </c>
       <c r="T21" t="n">
-        <v>750.1023486652794</v>
+        <v>607.5643668352252</v>
       </c>
       <c r="U21" t="n">
-        <v>750.1023486652794</v>
+        <v>607.5643668352252</v>
       </c>
       <c r="V21" t="n">
-        <v>750.1023486652794</v>
+        <v>607.5643668352252</v>
       </c>
       <c r="W21" t="n">
-        <v>560.6825636487947</v>
+        <v>409.4015648264558</v>
       </c>
       <c r="X21" t="n">
-        <v>371.26277863231</v>
+        <v>211.2387628176864</v>
       </c>
       <c r="Y21" t="n">
-        <v>181.8429936158253</v>
+        <v>211.2387628176864</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>241.4932384301346</v>
+        <v>15.69449391909454</v>
       </c>
       <c r="C22" t="n">
-        <v>72.55705550222768</v>
+        <v>15.69449391909454</v>
       </c>
       <c r="D22" t="n">
-        <v>72.55705550222768</v>
+        <v>15.69449391909454</v>
       </c>
       <c r="E22" t="n">
-        <v>72.55705550222768</v>
+        <v>15.69449391909454</v>
       </c>
       <c r="F22" t="n">
-        <v>15.00204697330559</v>
+        <v>15.69449391909454</v>
       </c>
       <c r="G22" t="n">
-        <v>15.00204697330559</v>
+        <v>15.69449391909454</v>
       </c>
       <c r="H22" t="n">
-        <v>15.00204697330559</v>
+        <v>15.69449391909454</v>
       </c>
       <c r="I22" t="n">
-        <v>15.00204697330559</v>
+        <v>15.69449391909454</v>
       </c>
       <c r="J22" t="n">
-        <v>15.00204697330559</v>
+        <v>15.69449391909454</v>
       </c>
       <c r="K22" t="n">
-        <v>106.7151088594234</v>
+        <v>108.9529863563139</v>
       </c>
       <c r="L22" t="n">
-        <v>118.7527324484195</v>
+        <v>283.8181835037427</v>
       </c>
       <c r="M22" t="n">
-        <v>304.4030637430761</v>
+        <v>478.0375457525375</v>
       </c>
       <c r="N22" t="n">
-        <v>490.0533950377328</v>
+        <v>672.2569080013324</v>
       </c>
       <c r="O22" t="n">
-        <v>634.3723839608016</v>
+        <v>784.7246959547267</v>
       </c>
       <c r="P22" t="n">
-        <v>750.1023486652794</v>
+        <v>784.7246959547267</v>
       </c>
       <c r="Q22" t="n">
-        <v>746.7254979846271</v>
+        <v>782.4843075722587</v>
       </c>
       <c r="R22" t="n">
-        <v>612.561488276859</v>
+        <v>782.4843075722587</v>
       </c>
       <c r="S22" t="n">
-        <v>423.1417032603743</v>
+        <v>782.4843075722587</v>
       </c>
       <c r="T22" t="n">
-        <v>423.1417032603743</v>
+        <v>610.1828999454027</v>
       </c>
       <c r="U22" t="n">
-        <v>423.1417032603743</v>
+        <v>412.0200979366333</v>
       </c>
       <c r="V22" t="n">
-        <v>423.1417032603743</v>
+        <v>412.0200979366333</v>
       </c>
       <c r="W22" t="n">
-        <v>423.1417032603743</v>
+        <v>213.8572959278639</v>
       </c>
       <c r="X22" t="n">
-        <v>423.1417032603743</v>
+        <v>213.8572959278639</v>
       </c>
       <c r="Y22" t="n">
-        <v>423.1417032603743</v>
+        <v>15.69449391909454</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>574.0438072739746</v>
+        <v>53.98113264792551</v>
       </c>
       <c r="C23" t="n">
-        <v>307.6661507067967</v>
+        <v>53.98113264792551</v>
       </c>
       <c r="D23" t="n">
-        <v>41.28849413961871</v>
+        <v>53.98113264792551</v>
       </c>
       <c r="E23" t="n">
-        <v>41.28849413961871</v>
+        <v>53.98113264792551</v>
       </c>
       <c r="F23" t="n">
-        <v>41.28849413961871</v>
+        <v>53.98113264792551</v>
       </c>
       <c r="G23" t="n">
-        <v>21.09711040012049</v>
+        <v>53.98113264792551</v>
       </c>
       <c r="H23" t="n">
         <v>21.09711040012049</v>
@@ -5989,22 +5989,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J23" t="n">
-        <v>49.28269087917581</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K23" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L23" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M23" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N23" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991315</v>
       </c>
       <c r="O23" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358411</v>
       </c>
       <c r="P23" t="n">
         <v>1011.026904601763</v>
@@ -6022,19 +6022,19 @@
         <v>840.4214638411526</v>
       </c>
       <c r="U23" t="n">
-        <v>840.4214638411526</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="V23" t="n">
-        <v>840.4214638411526</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="W23" t="n">
-        <v>840.4214638411526</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="X23" t="n">
-        <v>574.0438072739746</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="Y23" t="n">
-        <v>574.0438072739746</v>
+        <v>53.98113264792551</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="C24" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="D24" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="E24" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="F24" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="G24" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H24" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I24" t="n">
         <v>21.09711040012049</v>
@@ -6071,19 +6071,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K24" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L24" t="n">
-        <v>242.5255548298713</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M24" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N24" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O24" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P24" t="n">
         <v>1026.524810789493</v>
@@ -6107,13 +6107,13 @@
         <v>591.5675658110954</v>
       </c>
       <c r="W24" t="n">
-        <v>337.3302090828938</v>
+        <v>591.5675658110954</v>
       </c>
       <c r="X24" t="n">
-        <v>228.8574091650744</v>
+        <v>383.7160656055626</v>
       </c>
       <c r="Y24" t="n">
-        <v>21.09711040012049</v>
+        <v>175.9557668406086</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>21.09711040012049</v>
+        <v>634.9529738206666</v>
       </c>
       <c r="C25" t="n">
-        <v>21.09711040012049</v>
+        <v>466.0167908927597</v>
       </c>
       <c r="D25" t="n">
-        <v>21.09711040012049</v>
+        <v>315.900151480424</v>
       </c>
       <c r="E25" t="n">
-        <v>21.09711040012049</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F25" t="n">
         <v>21.09711040012049</v>
@@ -6153,16 +6153,16 @@
         <v>126.4133765287946</v>
       </c>
       <c r="L25" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M25" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N25" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O25" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P25" t="n">
         <v>1048.360858816803</v>
@@ -6174,25 +6174,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S25" t="n">
-        <v>848.0684854165359</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T25" t="n">
-        <v>622.5994491745502</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U25" t="n">
-        <v>356.2217926073722</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V25" t="n">
-        <v>101.5373044014853</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W25" t="n">
-        <v>21.09711040012049</v>
+        <v>816.6014386509063</v>
       </c>
       <c r="X25" t="n">
-        <v>21.09711040012049</v>
+        <v>816.6014386509063</v>
       </c>
       <c r="Y25" t="n">
-        <v>21.09711040012049</v>
+        <v>816.6014386509063</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>166.0479880037678</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="C26" t="n">
-        <v>166.0479880037678</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="D26" t="n">
-        <v>166.0479880037678</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="E26" t="n">
-        <v>166.0479880037678</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="F26" t="n">
-        <v>166.0479880037678</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G26" t="n">
         <v>21.09711040012049</v>
@@ -6226,16 +6226,16 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J26" t="n">
-        <v>49.28269087917581</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K26" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L26" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M26" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N26" t="n">
         <v>704.5463761991317</v>
@@ -6253,25 +6253,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S26" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T26" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U26" t="n">
-        <v>432.4256445709457</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="V26" t="n">
-        <v>166.0479880037678</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="W26" t="n">
-        <v>166.0479880037678</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="X26" t="n">
-        <v>166.0479880037678</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="Y26" t="n">
-        <v>166.0479880037678</v>
+        <v>801.1705019471533</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>523.8468426926747</v>
+        <v>465.4306440683848</v>
       </c>
       <c r="C27" t="n">
-        <v>349.3938134115477</v>
+        <v>329.2689750668272</v>
       </c>
       <c r="D27" t="n">
-        <v>349.3938134115477</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E27" t="n">
-        <v>349.3938134115477</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F27" t="n">
-        <v>202.8592554384327</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G27" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H27" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I27" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J27" t="n">
-        <v>117.4455628004801</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K27" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L27" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N27" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O27" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P27" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q27" t="n">
         <v>1054.855520006025</v>
@@ -6332,25 +6332,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S27" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T27" t="n">
-        <v>839.7105578442523</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="U27" t="n">
-        <v>731.6071414576286</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="V27" t="n">
-        <v>731.6071414576286</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="W27" t="n">
-        <v>731.6071414576286</v>
+        <v>633.6459810884528</v>
       </c>
       <c r="X27" t="n">
-        <v>731.6071414576286</v>
+        <v>633.6459810884528</v>
       </c>
       <c r="Y27" t="n">
-        <v>523.8468426926747</v>
+        <v>633.6459810884528</v>
       </c>
     </row>
     <row r="28">
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>634.9529738206666</v>
+        <v>340.4517420414289</v>
       </c>
       <c r="C28" t="n">
-        <v>466.0167908927597</v>
+        <v>171.515559113522</v>
       </c>
       <c r="D28" t="n">
-        <v>315.900151480424</v>
+        <v>171.515559113522</v>
       </c>
       <c r="E28" t="n">
         <v>167.9870578980309</v>
@@ -6387,10 +6387,10 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K28" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L28" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M28" t="n">
         <v>527.7368878375336</v>
@@ -6417,19 +6417,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U28" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="V28" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="W28" t="n">
-        <v>788.4778634388466</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="X28" t="n">
-        <v>788.4778634388466</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="Y28" t="n">
-        <v>788.4778634388466</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>553.8524235344764</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="C29" t="n">
-        <v>553.8524235344764</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="D29" t="n">
-        <v>553.8524235344764</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="E29" t="n">
-        <v>287.4747669672984</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="F29" t="n">
-        <v>287.4747669672984</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="G29" t="n">
-        <v>21.09711040012049</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H29" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I29" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J29" t="n">
-        <v>49.28269087917582</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K29" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L29" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M29" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N29" t="n">
         <v>704.5463761991317</v>
@@ -6493,22 +6493,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T29" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U29" t="n">
-        <v>820.2300801016544</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="V29" t="n">
-        <v>820.2300801016544</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="W29" t="n">
-        <v>820.2300801016544</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="X29" t="n">
-        <v>820.2300801016544</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="Y29" t="n">
-        <v>820.2300801016544</v>
+        <v>801.1705019471533</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>371.2345819660704</v>
+        <v>633.152190961004</v>
       </c>
       <c r="C30" t="n">
-        <v>371.2345819660704</v>
+        <v>633.152190961004</v>
       </c>
       <c r="D30" t="n">
-        <v>371.2345819660704</v>
+        <v>609.1154303071141</v>
       </c>
       <c r="E30" t="n">
-        <v>211.9971269606149</v>
+        <v>449.8779753016586</v>
       </c>
       <c r="F30" t="n">
-        <v>65.46256898749988</v>
+        <v>303.3434173285435</v>
       </c>
       <c r="G30" t="n">
-        <v>65.46256898749988</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="H30" t="n">
         <v>65.46256898749988</v>
@@ -6542,7 +6542,7 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J30" t="n">
-        <v>117.4455628004801</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K30" t="n">
         <v>192.1295835699343</v>
@@ -6572,22 +6572,22 @@
         <v>1036.519636212815</v>
       </c>
       <c r="T30" t="n">
-        <v>839.7105578442523</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U30" t="n">
-        <v>747.3014191916714</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V30" t="n">
-        <v>747.3014191916714</v>
+        <v>801.367527981072</v>
       </c>
       <c r="W30" t="n">
-        <v>747.3014191916714</v>
+        <v>801.367527981072</v>
       </c>
       <c r="X30" t="n">
-        <v>539.4499189861385</v>
+        <v>801.367527981072</v>
       </c>
       <c r="Y30" t="n">
-        <v>539.4499189861385</v>
+        <v>801.367527981072</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>21.09711040012049</v>
+        <v>484.8363344083309</v>
       </c>
       <c r="C31" t="n">
-        <v>21.09711040012049</v>
+        <v>315.900151480424</v>
       </c>
       <c r="D31" t="n">
-        <v>21.09711040012049</v>
+        <v>315.900151480424</v>
       </c>
       <c r="E31" t="n">
-        <v>21.09711040012049</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F31" t="n">
         <v>21.09711040012049</v>
@@ -6624,19 +6624,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K31" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L31" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M31" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N31" t="n">
         <v>739.1822330227046</v>
       </c>
       <c r="O31" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P31" t="n">
         <v>1048.360858816803</v>
@@ -6648,25 +6648,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S31" t="n">
-        <v>1054.855520006025</v>
+        <v>1017.591647542687</v>
       </c>
       <c r="T31" t="n">
-        <v>829.3864837640389</v>
+        <v>1017.591647542687</v>
       </c>
       <c r="U31" t="n">
-        <v>563.0088271968609</v>
+        <v>751.2139909755089</v>
       </c>
       <c r="V31" t="n">
-        <v>308.3243389909741</v>
+        <v>751.2139909755089</v>
       </c>
       <c r="W31" t="n">
-        <v>41.94668242379612</v>
+        <v>484.8363344083309</v>
       </c>
       <c r="X31" t="n">
-        <v>21.09711040012049</v>
+        <v>484.8363344083309</v>
       </c>
       <c r="Y31" t="n">
-        <v>21.09711040012049</v>
+        <v>484.8363344083309</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>553.8524235344764</v>
+        <v>419.7330060626387</v>
       </c>
       <c r="C32" t="n">
-        <v>553.8524235344764</v>
+        <v>287.4747669672983</v>
       </c>
       <c r="D32" t="n">
-        <v>553.8524235344764</v>
+        <v>287.4747669672983</v>
       </c>
       <c r="E32" t="n">
-        <v>553.8524235344764</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="F32" t="n">
-        <v>553.8524235344764</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="G32" t="n">
-        <v>287.4747669672984</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="H32" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="I32" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="J32" t="n">
-        <v>49.28269087917581</v>
+        <v>49.2826908791758</v>
       </c>
       <c r="K32" t="n">
         <v>142.264087905254</v>
@@ -6724,28 +6724,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R32" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S32" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946885</v>
       </c>
       <c r="T32" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298165</v>
       </c>
       <c r="U32" t="n">
-        <v>801.1705019471533</v>
+        <v>686.1106626298165</v>
       </c>
       <c r="V32" t="n">
-        <v>553.8524235344764</v>
+        <v>686.1106626298165</v>
       </c>
       <c r="W32" t="n">
-        <v>553.8524235344764</v>
+        <v>419.7330060626387</v>
       </c>
       <c r="X32" t="n">
-        <v>553.8524235344764</v>
+        <v>419.7330060626387</v>
       </c>
       <c r="Y32" t="n">
-        <v>553.8524235344764</v>
+        <v>419.7330060626387</v>
       </c>
     </row>
     <row r="33">
@@ -6755,31 +6755,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>349.3938134115477</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="C33" t="n">
-        <v>349.3938134115477</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="D33" t="n">
-        <v>349.3938134115477</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="E33" t="n">
-        <v>349.3938134115477</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="F33" t="n">
-        <v>202.8592554384327</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="G33" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="H33" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="I33" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="J33" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="K33" t="n">
         <v>95.78113116957465</v>
@@ -6800,31 +6800,31 @@
         <v>930.1763583891335</v>
       </c>
       <c r="Q33" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R33" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="S33" t="n">
-        <v>887.8833378166544</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="T33" t="n">
-        <v>691.074259448092</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="U33" t="n">
-        <v>691.074259448092</v>
+        <v>808.3837902496277</v>
       </c>
       <c r="V33" t="n">
-        <v>455.9221512163493</v>
+        <v>573.2316820178851</v>
       </c>
       <c r="W33" t="n">
-        <v>349.3938134115477</v>
+        <v>318.9943252896834</v>
       </c>
       <c r="X33" t="n">
-        <v>349.3938134115477</v>
+        <v>111.1428250841506</v>
       </c>
       <c r="Y33" t="n">
-        <v>349.3938134115477</v>
+        <v>21.09711040012048</v>
       </c>
     </row>
     <row r="34">
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="C34" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="D34" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="E34" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="F34" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="G34" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="H34" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="I34" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="J34" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="K34" t="n">
         <v>126.4133765287946</v>
@@ -6867,43 +6867,43 @@
         <v>316.7083726551008</v>
       </c>
       <c r="M34" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375331</v>
       </c>
       <c r="N34" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227041</v>
       </c>
       <c r="O34" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075537</v>
       </c>
       <c r="P34" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q34" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R34" t="n">
-        <v>926.0629918407075</v>
+        <v>926.062991840707</v>
       </c>
       <c r="S34" t="n">
-        <v>926.0629918407075</v>
+        <v>719.2759572512184</v>
       </c>
       <c r="T34" t="n">
-        <v>926.0629918407075</v>
+        <v>719.2759572512184</v>
       </c>
       <c r="U34" t="n">
-        <v>659.6853352735295</v>
+        <v>469.8792404416679</v>
       </c>
       <c r="V34" t="n">
-        <v>441.3961400338205</v>
+        <v>469.8792404416679</v>
       </c>
       <c r="W34" t="n">
-        <v>175.0184834666425</v>
+        <v>469.8792404416679</v>
       </c>
       <c r="X34" t="n">
-        <v>175.0184834666425</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y34" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012048</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>574.0438072739746</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="C35" t="n">
-        <v>574.0438072739746</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="D35" t="n">
-        <v>574.0438072739746</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="E35" t="n">
-        <v>307.6661507067967</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="F35" t="n">
-        <v>307.6661507067967</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="G35" t="n">
-        <v>41.28849413961871</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="H35" t="n">
-        <v>41.28849413961871</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="I35" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="J35" t="n">
-        <v>49.28269087917602</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K35" t="n">
-        <v>142.2640879052543</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L35" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M35" t="n">
-        <v>495.5981834030606</v>
+        <v>495.59818340306</v>
       </c>
       <c r="N35" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991314</v>
       </c>
       <c r="O35" t="n">
-        <v>888.5149683358416</v>
+        <v>888.514968335841</v>
       </c>
       <c r="P35" t="n">
-        <v>1011.026904601763</v>
+        <v>1011.026904601762</v>
       </c>
       <c r="Q35" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R35" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S35" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T35" t="n">
-        <v>840.4214638411526</v>
+        <v>840.4214638411521</v>
       </c>
       <c r="U35" t="n">
-        <v>840.4214638411526</v>
+        <v>586.736445782281</v>
       </c>
       <c r="V35" t="n">
-        <v>840.4214638411526</v>
+        <v>320.3587892151031</v>
       </c>
       <c r="W35" t="n">
-        <v>840.4214638411526</v>
+        <v>287.4747669672983</v>
       </c>
       <c r="X35" t="n">
-        <v>840.4214638411526</v>
+        <v>287.4747669672983</v>
       </c>
       <c r="Y35" t="n">
-        <v>840.4214638411526</v>
+        <v>21.09711040012048</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>202.8592554384327</v>
+        <v>739.2030010008617</v>
       </c>
       <c r="C36" t="n">
-        <v>202.8592554384327</v>
+        <v>564.7499717197347</v>
       </c>
       <c r="D36" t="n">
-        <v>202.8592554384327</v>
+        <v>564.7499717197347</v>
       </c>
       <c r="E36" t="n">
-        <v>202.8592554384327</v>
+        <v>405.5125167142792</v>
       </c>
       <c r="F36" t="n">
-        <v>202.8592554384327</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="G36" t="n">
-        <v>65.46256898749988</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H36" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="I36" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="J36" t="n">
         <v>117.4455628004801</v>
@@ -7022,46 +7022,46 @@
         <v>192.1295835699343</v>
       </c>
       <c r="L36" t="n">
-        <v>338.874007230231</v>
+        <v>338.8740072302309</v>
       </c>
       <c r="M36" t="n">
-        <v>529.4746963267547</v>
+        <v>529.4746963267546</v>
       </c>
       <c r="N36" t="n">
-        <v>739.5286634293598</v>
+        <v>739.5286634293595</v>
       </c>
       <c r="O36" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560892</v>
       </c>
       <c r="P36" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q36" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R36" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S36" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T36" t="n">
-        <v>839.7105578442523</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U36" t="n">
-        <v>692.2487203983769</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V36" t="n">
-        <v>457.0966121666343</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="W36" t="n">
-        <v>202.8592554384327</v>
+        <v>800.6181632778225</v>
       </c>
       <c r="X36" t="n">
-        <v>202.8592554384327</v>
+        <v>800.6181632778225</v>
       </c>
       <c r="Y36" t="n">
-        <v>202.8592554384327</v>
+        <v>800.6181632778225</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>21.09711040012049</v>
+        <v>484.8363344083308</v>
       </c>
       <c r="C37" t="n">
-        <v>21.09711040012049</v>
+        <v>315.9001514804239</v>
       </c>
       <c r="D37" t="n">
-        <v>21.09711040012049</v>
+        <v>315.9001514804239</v>
       </c>
       <c r="E37" t="n">
-        <v>21.09711040012049</v>
+        <v>167.9870578980308</v>
       </c>
       <c r="F37" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="G37" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="H37" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="I37" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="J37" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001201</v>
       </c>
       <c r="K37" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287943</v>
       </c>
       <c r="L37" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551004</v>
       </c>
       <c r="M37" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375331</v>
       </c>
       <c r="N37" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227041</v>
       </c>
       <c r="O37" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075537</v>
       </c>
       <c r="P37" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q37" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R37" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S37" t="n">
-        <v>995.6178423131884</v>
+        <v>848.0684854165354</v>
       </c>
       <c r="T37" t="n">
-        <v>770.1488060712027</v>
+        <v>848.0684854165354</v>
       </c>
       <c r="U37" t="n">
-        <v>503.7711495040247</v>
+        <v>848.0684854165354</v>
       </c>
       <c r="V37" t="n">
-        <v>249.0866612981378</v>
+        <v>848.0684854165354</v>
       </c>
       <c r="W37" t="n">
-        <v>249.0866612981378</v>
+        <v>712.8258853063481</v>
       </c>
       <c r="X37" t="n">
-        <v>21.09711040012049</v>
+        <v>484.8363344083308</v>
       </c>
       <c r="Y37" t="n">
-        <v>21.09711040012049</v>
+        <v>484.8363344083308</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>788.4778634388465</v>
+        <v>287.4747669672983</v>
       </c>
       <c r="C38" t="n">
-        <v>522.1002068716687</v>
+        <v>287.4747669672983</v>
       </c>
       <c r="D38" t="n">
-        <v>255.7225503044908</v>
+        <v>287.4747669672983</v>
       </c>
       <c r="E38" t="n">
-        <v>255.7225503044908</v>
+        <v>287.4747669672983</v>
       </c>
       <c r="F38" t="n">
-        <v>255.7225503044908</v>
+        <v>287.4747669672983</v>
       </c>
       <c r="G38" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="H38" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="I38" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="J38" t="n">
         <v>49.28269087917579</v>
       </c>
       <c r="K38" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052539</v>
       </c>
       <c r="L38" t="n">
-        <v>294.5174947515901</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M38" t="n">
-        <v>495.59818340306</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N38" t="n">
-        <v>704.5463761991314</v>
+        <v>704.5463761991315</v>
       </c>
       <c r="O38" t="n">
-        <v>888.5149683358409</v>
+        <v>888.514968335841</v>
       </c>
       <c r="P38" t="n">
         <v>1011.026904601762</v>
@@ -7201,25 +7201,25 @@
         <v>1054.855520006024</v>
       </c>
       <c r="S38" t="n">
-        <v>1054.855520006024</v>
+        <v>900.5447187946885</v>
       </c>
       <c r="T38" t="n">
-        <v>1054.855520006024</v>
+        <v>686.1106626298165</v>
       </c>
       <c r="U38" t="n">
-        <v>1054.855520006024</v>
+        <v>686.1106626298165</v>
       </c>
       <c r="V38" t="n">
-        <v>1054.855520006024</v>
+        <v>686.1106626298165</v>
       </c>
       <c r="W38" t="n">
-        <v>788.4778634388465</v>
+        <v>419.7330060626387</v>
       </c>
       <c r="X38" t="n">
-        <v>788.4778634388465</v>
+        <v>419.7330060626387</v>
       </c>
       <c r="Y38" t="n">
-        <v>788.4778634388465</v>
+        <v>287.4747669672983</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>21.09711040012049</v>
+        <v>377.7129023510963</v>
       </c>
       <c r="C39" t="n">
-        <v>21.09711040012049</v>
+        <v>326.869123378691</v>
       </c>
       <c r="D39" t="n">
-        <v>21.09711040012049</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E39" t="n">
-        <v>21.09711040012049</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F39" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="G39" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="H39" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="I39" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="J39" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="K39" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957459</v>
       </c>
       <c r="L39" t="n">
-        <v>338.8740072302307</v>
+        <v>338.8740072302309</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4746963267545</v>
+        <v>529.4746963267546</v>
       </c>
       <c r="N39" t="n">
         <v>739.5286634293595</v>
       </c>
       <c r="O39" t="n">
-        <v>909.4672107560893</v>
+        <v>909.4672107560892</v>
       </c>
       <c r="P39" t="n">
         <v>1026.524810789493</v>
@@ -7277,28 +7277,28 @@
         <v>1054.855520006024</v>
       </c>
       <c r="R39" t="n">
-        <v>1054.855520006024</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="S39" t="n">
-        <v>1054.855520006024</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="T39" t="n">
-        <v>1054.855520006024</v>
+        <v>839.7105578442519</v>
       </c>
       <c r="U39" t="n">
-        <v>926.0983743305515</v>
+        <v>839.7105578442519</v>
       </c>
       <c r="V39" t="n">
-        <v>690.9462660988088</v>
+        <v>839.7105578442519</v>
       </c>
       <c r="W39" t="n">
-        <v>436.7089093706072</v>
+        <v>585.4732011160502</v>
       </c>
       <c r="X39" t="n">
-        <v>228.8574091650744</v>
+        <v>585.4732011160502</v>
       </c>
       <c r="Y39" t="n">
-        <v>21.09711040012049</v>
+        <v>377.7129023510963</v>
       </c>
     </row>
     <row r="40">
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>169.0102039825136</v>
+        <v>315.9001514804239</v>
       </c>
       <c r="C40" t="n">
-        <v>169.0102039825136</v>
+        <v>315.9001514804239</v>
       </c>
       <c r="D40" t="n">
-        <v>169.0102039825136</v>
+        <v>315.9001514804239</v>
       </c>
       <c r="E40" t="n">
-        <v>21.09711040012049</v>
+        <v>167.9870578980308</v>
       </c>
       <c r="F40" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="G40" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="H40" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="I40" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="J40" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012048</v>
       </c>
       <c r="K40" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L40" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M40" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N40" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227044</v>
       </c>
       <c r="O40" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075537</v>
       </c>
       <c r="P40" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q40" t="n">
         <v>1054.855520006024</v>
@@ -7359,25 +7359,25 @@
         <v>1054.855520006024</v>
       </c>
       <c r="S40" t="n">
-        <v>1054.855520006024</v>
+        <v>848.0684854165354</v>
       </c>
       <c r="T40" t="n">
-        <v>871.7208135858181</v>
+        <v>848.0684854165354</v>
       </c>
       <c r="U40" t="n">
-        <v>871.7208135858181</v>
+        <v>848.0684854165354</v>
       </c>
       <c r="V40" t="n">
-        <v>617.0363253799312</v>
+        <v>848.0684854165354</v>
       </c>
       <c r="W40" t="n">
-        <v>350.6586688127533</v>
+        <v>764.6822815219714</v>
       </c>
       <c r="X40" t="n">
-        <v>350.6586688127533</v>
+        <v>536.692730623954</v>
       </c>
       <c r="Y40" t="n">
-        <v>350.6586688127533</v>
+        <v>315.9001514804239</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>522.1002068716689</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="C41" t="n">
-        <v>522.1002068716689</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="D41" t="n">
-        <v>255.7225503044908</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="E41" t="n">
-        <v>255.7225503044908</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="F41" t="n">
-        <v>255.7225503044908</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G41" t="n">
-        <v>255.7225503044908</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H41" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I41" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J41" t="n">
         <v>49.28269087917624</v>
@@ -7420,13 +7420,13 @@
         <v>294.5174947515912</v>
       </c>
       <c r="M41" t="n">
-        <v>495.5981834030612</v>
+        <v>495.5981834030611</v>
       </c>
       <c r="N41" t="n">
-        <v>704.5463761991325</v>
+        <v>704.5463761991323</v>
       </c>
       <c r="O41" t="n">
-        <v>888.514968335842</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P41" t="n">
         <v>1011.026904601763</v>
@@ -7447,16 +7447,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V41" t="n">
-        <v>788.477863438847</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="W41" t="n">
-        <v>522.1002068716689</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="X41" t="n">
-        <v>522.1002068716689</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="Y41" t="n">
-        <v>522.1002068716689</v>
+        <v>553.8524235344764</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>21.0971104001205</v>
+        <v>483.2227592425592</v>
       </c>
       <c r="C42" t="n">
-        <v>21.0971104001205</v>
+        <v>453.9627644854196</v>
       </c>
       <c r="D42" t="n">
-        <v>21.0971104001205</v>
+        <v>305.0283548241683</v>
       </c>
       <c r="E42" t="n">
-        <v>21.0971104001205</v>
+        <v>305.0283548241683</v>
       </c>
       <c r="F42" t="n">
-        <v>21.0971104001205</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="G42" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H42" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I42" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J42" t="n">
-        <v>117.4455628004806</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K42" t="n">
-        <v>192.1295835699348</v>
+        <v>95.78113116957459</v>
       </c>
       <c r="L42" t="n">
-        <v>338.8740072302314</v>
+        <v>242.5255548298712</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4746963267552</v>
+        <v>503.6022960313622</v>
       </c>
       <c r="N42" t="n">
-        <v>739.5286634293602</v>
+        <v>713.6562631339672</v>
       </c>
       <c r="O42" t="n">
-        <v>909.46721075609</v>
+        <v>909.4672107560897</v>
       </c>
       <c r="P42" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q42" t="n">
         <v>1054.855520006025</v>
@@ -7517,25 +7517,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S42" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T42" t="n">
-        <v>1036.519636212815</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U42" t="n">
-        <v>808.3837902496286</v>
+        <v>691.074259448092</v>
       </c>
       <c r="V42" t="n">
-        <v>573.231682017886</v>
+        <v>691.074259448092</v>
       </c>
       <c r="W42" t="n">
-        <v>318.9943252896844</v>
+        <v>691.074259448092</v>
       </c>
       <c r="X42" t="n">
-        <v>111.1428250841515</v>
+        <v>483.2227592425592</v>
       </c>
       <c r="Y42" t="n">
-        <v>21.0971104001205</v>
+        <v>483.2227592425592</v>
       </c>
     </row>
     <row r="43">
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>21.0971104001205</v>
+        <v>267.4157186657818</v>
       </c>
       <c r="C43" t="n">
-        <v>21.0971104001205</v>
+        <v>267.4157186657818</v>
       </c>
       <c r="D43" t="n">
-        <v>21.0971104001205</v>
+        <v>267.4157186657818</v>
       </c>
       <c r="E43" t="n">
-        <v>21.0971104001205</v>
+        <v>119.5026250833887</v>
       </c>
       <c r="F43" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G43" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H43" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I43" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J43" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K43" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L43" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M43" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N43" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227044</v>
       </c>
       <c r="O43" t="n">
-        <v>918.4699372075543</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P43" t="n">
         <v>1048.360858816803</v>
@@ -7599,22 +7599,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T43" t="n">
-        <v>829.3864837640393</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U43" t="n">
-        <v>563.0088271968613</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="V43" t="n">
-        <v>563.0088271968613</v>
+        <v>533.7933752329598</v>
       </c>
       <c r="W43" t="n">
-        <v>296.6311706296832</v>
+        <v>267.4157186657818</v>
       </c>
       <c r="X43" t="n">
-        <v>296.6311706296832</v>
+        <v>267.4157186657818</v>
       </c>
       <c r="Y43" t="n">
-        <v>202.7455752303602</v>
+        <v>267.4157186657818</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>287.4747669672984</v>
+        <v>553.852423534476</v>
       </c>
       <c r="C44" t="n">
-        <v>287.4747669672984</v>
+        <v>287.4747669672982</v>
       </c>
       <c r="D44" t="n">
-        <v>287.4747669672984</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="E44" t="n">
-        <v>287.4747669672984</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="F44" t="n">
-        <v>287.4747669672984</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="G44" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="H44" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="I44" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="J44" t="n">
         <v>49.28269087917579</v>
@@ -7660,13 +7660,13 @@
         <v>495.59818340306</v>
       </c>
       <c r="N44" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991309</v>
       </c>
       <c r="O44" t="n">
-        <v>888.5149683358412</v>
+        <v>888.5149683358405</v>
       </c>
       <c r="P44" t="n">
-        <v>1011.026904601763</v>
+        <v>1011.026904601762</v>
       </c>
       <c r="Q44" t="n">
         <v>1054.855520006024</v>
@@ -7675,25 +7675,25 @@
         <v>1054.855520006024</v>
       </c>
       <c r="S44" t="n">
-        <v>1054.855520006024</v>
+        <v>900.544718794688</v>
       </c>
       <c r="T44" t="n">
-        <v>840.4214638411523</v>
+        <v>900.544718794688</v>
       </c>
       <c r="U44" t="n">
-        <v>586.7364457822812</v>
+        <v>900.544718794688</v>
       </c>
       <c r="V44" t="n">
-        <v>586.7364457822812</v>
+        <v>900.544718794688</v>
       </c>
       <c r="W44" t="n">
-        <v>586.7364457822812</v>
+        <v>820.2300801016537</v>
       </c>
       <c r="X44" t="n">
-        <v>553.8524235344762</v>
+        <v>553.852423534476</v>
       </c>
       <c r="Y44" t="n">
-        <v>287.4747669672984</v>
+        <v>553.852423534476</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>462.9384134849053</v>
+        <v>564.7499717197347</v>
       </c>
       <c r="C45" t="n">
-        <v>462.9384134849053</v>
+        <v>564.7499717197347</v>
       </c>
       <c r="D45" t="n">
-        <v>462.9384134849053</v>
+        <v>564.7499717197347</v>
       </c>
       <c r="E45" t="n">
-        <v>449.8779753016586</v>
+        <v>405.5125167142792</v>
       </c>
       <c r="F45" t="n">
-        <v>303.3434173285435</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="G45" t="n">
-        <v>165.9467308776108</v>
+        <v>121.5812722902313</v>
       </c>
       <c r="H45" t="n">
-        <v>65.46256898749989</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="I45" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="J45" t="n">
-        <v>117.4455628004804</v>
+        <v>117.4455628004797</v>
       </c>
       <c r="K45" t="n">
-        <v>192.1295835699345</v>
+        <v>192.1295835699338</v>
       </c>
       <c r="L45" t="n">
-        <v>338.8740072302311</v>
+        <v>338.8740072302304</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4746963267548</v>
+        <v>529.4746963267542</v>
       </c>
       <c r="N45" t="n">
-        <v>739.5286634293598</v>
+        <v>739.5286634293591</v>
       </c>
       <c r="O45" t="n">
-        <v>909.4672107560895</v>
+        <v>909.4672107560888</v>
       </c>
       <c r="P45" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789492</v>
       </c>
       <c r="Q45" t="n">
         <v>1054.855520006024</v>
       </c>
       <c r="R45" t="n">
-        <v>1036.519636212814</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S45" t="n">
-        <v>887.8833378166541</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T45" t="n">
-        <v>691.0742594480918</v>
+        <v>858.0464416374613</v>
       </c>
       <c r="U45" t="n">
-        <v>462.9384134849053</v>
+        <v>858.0464416374613</v>
       </c>
       <c r="V45" t="n">
-        <v>462.9384134849053</v>
+        <v>858.0464416374613</v>
       </c>
       <c r="W45" t="n">
-        <v>462.9384134849053</v>
+        <v>858.0464416374613</v>
       </c>
       <c r="X45" t="n">
-        <v>462.9384134849053</v>
+        <v>772.5102704846886</v>
       </c>
       <c r="Y45" t="n">
-        <v>462.9384134849053</v>
+        <v>564.7499717197347</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>167.9870578980309</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="C46" t="n">
-        <v>167.9870578980309</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="D46" t="n">
-        <v>167.9870578980309</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="E46" t="n">
-        <v>167.9870578980309</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="F46" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="G46" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="H46" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="I46" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="J46" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="K46" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287938</v>
       </c>
       <c r="L46" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551</v>
       </c>
       <c r="M46" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375327</v>
       </c>
       <c r="N46" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227036</v>
       </c>
       <c r="O46" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075532</v>
       </c>
       <c r="P46" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q46" t="n">
         <v>1054.855520006024</v>
       </c>
       <c r="R46" t="n">
-        <v>1054.855520006024</v>
+        <v>926.0629918407066</v>
       </c>
       <c r="S46" t="n">
-        <v>1054.855520006024</v>
+        <v>926.0629918407066</v>
       </c>
       <c r="T46" t="n">
-        <v>829.3864837640386</v>
+        <v>781.8419744324932</v>
       </c>
       <c r="U46" t="n">
-        <v>563.0088271968607</v>
+        <v>515.4643178653155</v>
       </c>
       <c r="V46" t="n">
-        <v>308.3243389909738</v>
+        <v>515.4643178653155</v>
       </c>
       <c r="W46" t="n">
-        <v>167.9870578980309</v>
+        <v>249.0866612981378</v>
       </c>
       <c r="X46" t="n">
-        <v>167.9870578980309</v>
+        <v>21.09711040012047</v>
       </c>
       <c r="Y46" t="n">
-        <v>167.9870578980309</v>
+        <v>21.09711040012047</v>
       </c>
     </row>
   </sheetData>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>7.091680627731932</v>
+        <v>56.36325065172169</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>50.24735287691434</v>
+        <v>0.9757828529238566</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>23.23168261818573</v>
+        <v>23.23168261818569</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8850,19 +8850,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7437663446525</v>
+        <v>22.19986892380255</v>
       </c>
       <c r="L13" t="n">
         <v>155.3190545659416</v>
       </c>
       <c r="M13" t="n">
-        <v>109.6851768847915</v>
+        <v>151.9300289740654</v>
       </c>
       <c r="N13" t="n">
         <v>144.1165101169799</v>
       </c>
       <c r="O13" t="n">
-        <v>8.508606056834793</v>
+        <v>50.80765138841083</v>
       </c>
       <c r="P13" t="n">
         <v>135.0065633140411</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5165848097225023</v>
+        <v>56.36325065172224</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8944,10 +8944,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>28.22703870668015</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>0.9757828529239134</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>19.31560059289504</v>
+        <v>23.2316826181857</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9087,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>26.88178308305791</v>
+        <v>22.19986892380257</v>
       </c>
       <c r="L16" t="n">
-        <v>162.4747015415544</v>
+        <v>43.08503958847001</v>
       </c>
       <c r="M16" t="n">
-        <v>161.6469345513314</v>
+        <v>151.9300289740655</v>
       </c>
       <c r="N16" t="n">
-        <v>153.9629383695096</v>
+        <v>144.11651011698</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
-        <v>22.33224582837117</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>15.37922103265839</v>
+        <v>13.86505578078187</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>11.05650389540735</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9327,19 +9327,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>98.29368706161266</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M19" t="n">
-        <v>171.4142040457084</v>
+        <v>177.9636070429137</v>
       </c>
       <c r="N19" t="n">
-        <v>163.8604018711117</v>
+        <v>117.7825433993783</v>
       </c>
       <c r="O19" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P19" t="n">
-        <v>18.10760906709386</v>
+        <v>16.48256298405258</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>15.37922103265839</v>
+        <v>13.86505578078184</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>11.05650389540692</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9564,19 +9564,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
-        <v>171.4142040457083</v>
+        <v>177.9636070429137</v>
       </c>
       <c r="N22" t="n">
-        <v>163.8604018711116</v>
+        <v>170.4598852121269</v>
       </c>
       <c r="O22" t="n">
-        <v>144.4363991805477</v>
+        <v>110.3643245531338</v>
       </c>
       <c r="P22" t="n">
-        <v>135.0065633140411</v>
+        <v>16.48256298405256</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9719,7 +9719,7 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446524</v>
       </c>
       <c r="L25" t="n">
         <v>162.4747015415544</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>99.37288961069065</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10053,7 +10053,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775129</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>99.37288961069065</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10287,7 +10287,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>135.0065633140411</v>
+        <v>135.006563314041</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>97.32166909127237</v>
+        <v>97.32166909127191</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761156</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>99.37288961069065</v>
+        <v>99.37288961069068</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761156</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418294</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>97.32166909127216</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10995,13 +10995,13 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O40" t="n">
-        <v>163.0416663658825</v>
+        <v>163.0416663658822</v>
       </c>
       <c r="P40" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.34295837775106</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761156</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>99.3728896106911</v>
+        <v>2.051220519418294</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11147,13 +11147,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>71.18793141915893</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>26.13373767211391</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11238,7 +11238,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.34295837775174</v>
+        <v>65.34295837775153</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>99.3728896106909</v>
+        <v>99.37288961069024</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446517</v>
       </c>
       <c r="L46" t="n">
         <v>162.4747015415544</v>
@@ -11475,7 +11475,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.3429583777513</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,19 +23260,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>208.1541498132941</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>197.5642996629695</v>
       </c>
       <c r="E11" t="n">
-        <v>224.8116281145484</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>256.1344310701809</v>
+        <v>413.2531730278943</v>
       </c>
       <c r="H11" t="n">
         <v>318.4846998108122</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>45.04859363640097</v>
+        <v>45.04859363640077</v>
       </c>
       <c r="T11" t="n">
-        <v>57.00513906352137</v>
+        <v>214.1238810212347</v>
       </c>
       <c r="U11" t="n">
         <v>251.1816877488572</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>170.6335165124214</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>9.414441692153872</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>39.71337556208275</v>
       </c>
       <c r="D12" t="n">
-        <v>9.054877648284844</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5263384976875898</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.2469034849667</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>101.6444647650348</v>
       </c>
       <c r="I12" t="n">
-        <v>51.64041629783932</v>
+        <v>51.64041629783929</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>32.071591919214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>151.3140530013673</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>195.7446060180399</v>
       </c>
       <c r="U12" t="n">
-        <v>68.75049448653488</v>
+        <v>225.8692364442482</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>94.57624120320625</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23424,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.07161528826</v>
+        <v>167.0716152882599</v>
       </c>
       <c r="H13" t="n">
         <v>154.0531901378539</v>
@@ -23439,7 +23439,7 @@
         <v>127.8026899798254</v>
       </c>
       <c r="J13" t="n">
-        <v>28.36014035361792</v>
+        <v>28.36014035361789</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>135.9554396389582</v>
       </c>
       <c r="S13" t="n">
-        <v>50.87584769224898</v>
+        <v>207.9945896499623</v>
       </c>
       <c r="T13" t="n">
         <v>224.0173974919776</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2688822253891</v>
+        <v>129.1501402676757</v>
       </c>
       <c r="V13" t="n">
-        <v>236.4982609558266</v>
+        <v>95.01890136611453</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>129.4042563788775</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>96.4973066280038</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23497,25 +23497,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>192.9900259687808</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>209.647504270035</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>240.8928380927729</v>
+        <v>413.2531730278943</v>
       </c>
       <c r="H14" t="n">
-        <v>165.9445708549546</v>
+        <v>161.3659578530988</v>
       </c>
       <c r="I14" t="n">
-        <v>128.4734259301373</v>
+        <v>131.4600546760547</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.25684230032167</v>
+        <v>21.12316271950939</v>
       </c>
       <c r="S14" t="n">
-        <v>160.5502909674107</v>
+        <v>162.3156188332455</v>
       </c>
       <c r="T14" t="n">
-        <v>213.7847598919888</v>
+        <v>57.00513906352126</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1754902182257</v>
+        <v>94.06294579114376</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>189.3620705537809</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23576,25 +23576,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>34.31831107196174</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.2054538446637</v>
+        <v>136.2469034849667</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>101.6444647650348</v>
       </c>
       <c r="I15" t="n">
-        <v>50.21331245407477</v>
+        <v>51.6404162978393</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>32.07159191921399</v>
       </c>
       <c r="S15" t="n">
-        <v>150.5441441124065</v>
+        <v>151.3140530013673</v>
       </c>
       <c r="T15" t="n">
-        <v>23.29466907792533</v>
+        <v>195.7446060180399</v>
       </c>
       <c r="U15" t="n">
-        <v>53.58364369200154</v>
+        <v>225.8692364442482</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>94.57624120320614</v>
       </c>
       <c r="X15" t="n">
-        <v>170.1306784472291</v>
+        <v>48.65424324576401</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>48.56395381959089</v>
       </c>
     </row>
     <row r="16">
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.0368653022136</v>
+        <v>167.07161528826</v>
       </c>
       <c r="H16" t="n">
-        <v>153.7442311710055</v>
+        <v>154.0531901378539</v>
       </c>
       <c r="I16" t="n">
-        <v>126.7576631267224</v>
+        <v>127.8026899798254</v>
       </c>
       <c r="J16" t="n">
-        <v>25.903316340141</v>
+        <v>28.36014035361791</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>6.268001687384981</v>
+        <v>9.177839155320669</v>
       </c>
       <c r="R16" t="n">
-        <v>134.3929539027287</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>207.3889921658637</v>
+        <v>207.9945896499623</v>
       </c>
       <c r="T16" t="n">
-        <v>51.58605447664365</v>
+        <v>66.89865553426409</v>
       </c>
       <c r="U16" t="n">
-        <v>113.984120969378</v>
+        <v>129.1501402676757</v>
       </c>
       <c r="V16" t="n">
-        <v>79.85477752160125</v>
+        <v>95.01890136611453</v>
       </c>
       <c r="W16" t="n">
-        <v>134.7762501379898</v>
+        <v>284.0882500591952</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23743,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>219.3504585753915</v>
+        <v>210.6948717530298</v>
       </c>
       <c r="G17" t="n">
-        <v>230.540821221378</v>
+        <v>413.0678795497305</v>
       </c>
       <c r="H17" t="n">
-        <v>316.8938261062223</v>
+        <v>316.587062977568</v>
       </c>
       <c r="I17" t="n">
-        <v>125.4713171199747</v>
+        <v>124.3165278591476</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>9.483721271807156</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>158.0932436995895</v>
       </c>
       <c r="T17" t="n">
-        <v>25.91829388988685</v>
+        <v>40.51638077134226</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1692605650303</v>
+        <v>54.98569028192244</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>131.5710844814532</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>144.145158562534</v>
       </c>
       <c r="G18" t="n">
-        <v>136.1637893657753</v>
+        <v>136.1477627338907</v>
       </c>
       <c r="H18" t="n">
-        <v>100.8417573507397</v>
+        <v>100.6869738270114</v>
       </c>
       <c r="I18" t="n">
-        <v>48.77881175550657</v>
+        <v>48.22701763140692</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>25.91616879539018</v>
       </c>
       <c r="S18" t="n">
-        <v>149.7702446909496</v>
+        <v>149.4725570329162</v>
       </c>
       <c r="T18" t="n">
-        <v>195.4095977920013</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>181.7987592171511</v>
+        <v>29.68154003773262</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>64.16939599459968</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>9.591811214795797</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23895,25 +23895,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>145.9419471770393</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.0019352027142</v>
+        <v>166.9884990129115</v>
       </c>
       <c r="H19" t="n">
-        <v>153.4336708318196</v>
+        <v>153.3142108897559</v>
       </c>
       <c r="I19" t="n">
-        <v>125.7072197708667</v>
+        <v>125.3031568993468</v>
       </c>
       <c r="J19" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>132.8223696106904</v>
+        <v>132.2182296582909</v>
       </c>
       <c r="S19" t="n">
-        <v>19.25466862917631</v>
+        <v>206.5460996513899</v>
       </c>
       <c r="T19" t="n">
-        <v>36.19408632378017</v>
+        <v>223.6622643154888</v>
       </c>
       <c r="U19" t="n">
-        <v>98.73949432713036</v>
+        <v>90.08317462168844</v>
       </c>
       <c r="V19" t="n">
-        <v>86.96510614773339</v>
+        <v>55.95646933514632</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>90.34182434790932</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>195.2082544971607</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23977,19 +23977,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>375.5336460862204</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>219.3504585753916</v>
+        <v>234.0796676924807</v>
       </c>
       <c r="G20" t="n">
-        <v>413.097833230058</v>
+        <v>216.8867055610488</v>
       </c>
       <c r="H20" t="n">
-        <v>316.8938261062223</v>
+        <v>316.587062977568</v>
       </c>
       <c r="I20" t="n">
-        <v>125.4713171199747</v>
+        <v>124.3165278591476</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>11.36529914368134</v>
+        <v>9.483721271807127</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>158.0932436995895</v>
       </c>
       <c r="T20" t="n">
-        <v>213.4438810562068</v>
+        <v>213.312758820573</v>
       </c>
       <c r="U20" t="n">
-        <v>63.64367339871049</v>
+        <v>54.98569028192244</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>131.5710844814532</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24050,7 +24050,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24059,16 +24059,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>124.1888851720936</v>
       </c>
       <c r="G21" t="n">
-        <v>136.1637893657753</v>
+        <v>136.1477627338907</v>
       </c>
       <c r="H21" t="n">
-        <v>100.8417573507397</v>
+        <v>100.6869738270114</v>
       </c>
       <c r="I21" t="n">
-        <v>28.67548697279592</v>
+        <v>48.2270176314069</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>195.4095977920013</v>
+        <v>195.3449992187468</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8637684100909</v>
+        <v>225.8627140264143</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>64.16939599459977</v>
+        <v>55.51380917223793</v>
       </c>
       <c r="X21" t="n">
-        <v>18.24739803715764</v>
+        <v>9.591811214795797</v>
       </c>
       <c r="Y21" t="n">
-        <v>18.15710861098452</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,19 +24138,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>88.44158957929838</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.0019352027142</v>
+        <v>166.9884990129115</v>
       </c>
       <c r="H22" t="n">
-        <v>153.4336708318196</v>
+        <v>153.3142108897559</v>
       </c>
       <c r="I22" t="n">
-        <v>125.7072197708667</v>
+        <v>125.3031568993468</v>
       </c>
       <c r="J22" t="n">
-        <v>23.43375830553084</v>
+        <v>22.48381968648302</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>132.2182296582909</v>
       </c>
       <c r="S22" t="n">
-        <v>19.25466862917639</v>
+        <v>206.5460996513899</v>
       </c>
       <c r="T22" t="n">
-        <v>223.7196734901001</v>
+        <v>53.08387076490138</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2650814934503</v>
+        <v>90.08317462168844</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>90.34182434790932</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>22.40347936341311</v>
       </c>
     </row>
     <row r="23">
@@ -24208,10 +24208,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24220,10 +24220,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>392.8447047436068</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H23" t="n">
-        <v>314.193632629268</v>
+        <v>281.638450603941</v>
       </c>
       <c r="I23" t="n">
         <v>115.3066195468971</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24274,7 +24274,7 @@
         <v>106.0172206769629</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="24">
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>57.14491777528967</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24305,7 +24305,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I24" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24347,10 +24347,10 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>98.38491328483633</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.8836670385466</v>
@@ -24414,19 +24414,19 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U25" t="n">
-        <v>22.54475050117134</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>206.8872062752398</v>
+        <v>50.65145779502393</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24448,16 +24448,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>109.8381439921329</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G26" t="n">
-        <v>269.3328058180992</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H26" t="n">
         <v>314.193632629268</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24521,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>37.90844667677379</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H27" t="n">
         <v>99.47932027120976</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,25 +24572,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U27" t="n">
-        <v>118.8321052807971</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>27.84233945993904</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>142.9407464432329</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>225.14476353903</v>
       </c>
       <c r="E29" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>149.1202946442039</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H29" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I29" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U29" t="n">
-        <v>231.1586979761793</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24764,7 +24764,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>123.6486725172878</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24773,10 +24773,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24812,19 +24812,19 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U30" t="n">
-        <v>134.3694402374995</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24840,16 +24840,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.8836670385466</v>
@@ -24888,22 +24888,22 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S31" t="n">
-        <v>204.7191642435938</v>
+        <v>167.8279305048894</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U31" t="n">
         <v>22.54475050117134</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>22.80911833508486</v>
       </c>
       <c r="X31" t="n">
-        <v>205.0685790855983</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24919,22 +24919,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>234.3372350666206</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707558</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>149.1202946442039</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H32" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I32" t="n">
         <v>115.3066195468971</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V32" t="n">
-        <v>82.90736084158482</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590698</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25007,16 +25007,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H33" t="n">
         <v>99.47932027120976</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,25 +25046,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>146.231928734166</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>116.5374382401145</v>
       </c>
     </row>
     <row r="34">
@@ -25092,7 +25092,7 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I34" t="n">
         <v>122.1505735248085</v>
@@ -25125,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U34" t="n">
-        <v>22.54475050117134</v>
+        <v>39.35588086122246</v>
       </c>
       <c r="V34" t="n">
-        <v>36.03134003651607</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25162,19 +25162,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>149.1202946442039</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H35" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I35" t="n">
-        <v>95.31714964479389</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862888</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>316.6857866920863</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545476</v>
       </c>
     </row>
     <row r="36">
@@ -25232,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>105.7321729956761</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,19 +25280,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>18.1525249552777</v>
       </c>
       <c r="S36" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U36" t="n">
-        <v>79.86726843213799</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.8836670385466</v>
@@ -25332,10 +25332,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I37" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J37" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888211</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S37" t="n">
-        <v>146.0738633276859</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U37" t="n">
-        <v>22.54475050117134</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>152.6328242275056</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25393,10 +25393,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>101.5590117695015</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>90.96916161917687</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25405,7 +25405,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>180.5549891403834</v>
+        <v>149.120294644204</v>
       </c>
       <c r="H38" t="n">
         <v>314.193632629268</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.1481678782825</v>
@@ -25453,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>85.52708871590693</v>
+        <v>85.52708871590698</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>255.3022819516667</v>
       </c>
     </row>
     <row r="39">
@@ -25472,16 +25472,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>122.3731578056346</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>136.0227195864234</v>
@@ -25490,7 +25490,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I39" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T39" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>98.38491328483647</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.8836670385466</v>
@@ -25569,10 +25569,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I40" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J40" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888211</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S40" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>41.91098652356166</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U40" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>22.80911833508492</v>
+        <v>203.9706564809727</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>90.9691616191767</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25645,7 +25645,7 @@
         <v>412.83417464571</v>
       </c>
       <c r="H41" t="n">
-        <v>81.91444712394139</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I41" t="n">
         <v>115.3066195468971</v>
@@ -25687,10 +25687,10 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V41" t="n">
-        <v>64.03837846862865</v>
+        <v>95.47307296480844</v>
       </c>
       <c r="W41" t="n">
-        <v>85.52708871590676</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25709,25 +25709,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>143.7411041787476</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>99.47932027120976</v>
       </c>
       <c r="I42" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,25 +25757,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>116.5374382401136</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25794,10 +25794,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>47.99958848649574</v>
       </c>
       <c r="G43" t="n">
         <v>166.8836670385466</v>
@@ -25806,10 +25806,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I43" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J43" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888211</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25839,22 +25839,22 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U43" t="n">
-        <v>22.54475050117122</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>22.80911833508475</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>125.637913906765</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,10 +25867,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695016</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917704</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25879,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>149.1202946442039</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H44" t="n">
         <v>314.193632629268</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>269.729476411309</v>
       </c>
       <c r="X44" t="n">
-        <v>337.1759186531421</v>
+        <v>106.0172206769631</v>
       </c>
       <c r="Y44" t="n">
-        <v>122.5240586545475</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25952,7 +25952,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>144.7152466539867</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25964,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>18.1525249552777</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26009,10 +26009,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>121.0921757622325</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.8836670385466</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>80.43553864543463</v>
       </c>
       <c r="U46" t="n">
-        <v>22.54475050117139</v>
+        <v>22.54475050117156</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>147.5890900545774</v>
+        <v>22.80911833508509</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>475186.0154188075</v>
+        <v>475186.0154188076</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>488459.1451133852</v>
+        <v>475186.0154188075</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>501801.0710722087</v>
+        <v>509431.4409718845</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>501801.0710722085</v>
+        <v>509431.4409718845</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>568065.6954453208</v>
+        <v>568065.6954453209</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>568065.6954453207</v>
+        <v>568065.6954453206</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>568065.6954453209</v>
+        <v>568065.6954453208</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80630.55414858481</v>
+        <v>80630.55414858478</v>
       </c>
       <c r="C2" t="n">
         <v>80630.55414858478</v>
@@ -26322,16 +26322,16 @@
         <v>80630.55414858478</v>
       </c>
       <c r="E2" t="n">
-        <v>127886.7150619339</v>
+        <v>127886.715061934</v>
       </c>
       <c r="F2" t="n">
-        <v>131599.3421946724</v>
+        <v>127886.715061934</v>
       </c>
       <c r="G2" t="n">
-        <v>135331.212330617</v>
+        <v>137360.0083686037</v>
       </c>
       <c r="H2" t="n">
-        <v>135331.212330617</v>
+        <v>137360.0083686037</v>
       </c>
       <c r="I2" t="n">
         <v>152974.9358978343</v>
@@ -26343,7 +26343,7 @@
         <v>152974.9358978343</v>
       </c>
       <c r="L2" t="n">
-        <v>152974.9358978342</v>
+        <v>152974.9358978344</v>
       </c>
       <c r="M2" t="n">
         <v>152974.9358978343</v>
@@ -26352,7 +26352,7 @@
         <v>152974.9358978343</v>
       </c>
       <c r="O2" t="n">
-        <v>152974.9358978344</v>
+        <v>152974.9358978343</v>
       </c>
       <c r="P2" t="n">
         <v>152974.9358978343</v>
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>456510.481349753</v>
+        <v>456510.4813497532</v>
       </c>
       <c r="F3" t="n">
-        <v>19577.14407544413</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19237.9794163559</v>
+        <v>46542.16520940706</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>69629.16502673856</v>
+        <v>61718.74649877329</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39154.61897083</v>
+        <v>39154.61897083003</v>
       </c>
       <c r="N3" t="n">
-        <v>3714.10336086512</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3668.176138990426</v>
+        <v>9400.413330684585</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>43002.96221257856</v>
       </c>
       <c r="E4" t="n">
-        <v>6404.305946863233</v>
+        <v>6404.305946863221</v>
       </c>
       <c r="F4" t="n">
-        <v>6077.61908103468</v>
+        <v>6404.305946863232</v>
       </c>
       <c r="G4" t="n">
-        <v>5749.23895698715</v>
+        <v>5948.195755939216</v>
       </c>
       <c r="H4" t="n">
-        <v>5749.238956987148</v>
+        <v>5948.195755939212</v>
       </c>
       <c r="I4" t="n">
-        <v>7386.277043871285</v>
+        <v>7386.277043871284</v>
       </c>
       <c r="J4" t="n">
-        <v>7386.277043871285</v>
+        <v>7386.277043871284</v>
       </c>
       <c r="K4" t="n">
-        <v>7386.277043871285</v>
+        <v>7386.277043871284</v>
       </c>
       <c r="L4" t="n">
-        <v>7386.277043871285</v>
+        <v>7386.277043871281</v>
       </c>
       <c r="M4" t="n">
         <v>7386.277043871285</v>
       </c>
       <c r="N4" t="n">
-        <v>7386.277043871281</v>
+        <v>7386.277043871283</v>
       </c>
       <c r="O4" t="n">
-        <v>7386.277043871291</v>
+        <v>7386.27704387129</v>
       </c>
       <c r="P4" t="n">
-        <v>7386.277043871287</v>
+        <v>7386.277043871278</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>20667.09533421405</v>
+        <v>20667.09533421406</v>
       </c>
       <c r="F5" t="n">
-        <v>22009.16980436443</v>
+        <v>20667.09533421406</v>
       </c>
       <c r="G5" t="n">
-        <v>23358.20041161357</v>
+        <v>24046.89141040928</v>
       </c>
       <c r="H5" t="n">
-        <v>23358.20041161356</v>
+        <v>24046.89141040928</v>
       </c>
       <c r="I5" t="n">
         <v>29420.2032042662</v>
@@ -26499,19 +26499,19 @@
         <v>29420.2032042662</v>
       </c>
       <c r="L5" t="n">
-        <v>29420.2032042662</v>
+        <v>29420.20320426619</v>
       </c>
       <c r="M5" t="n">
-        <v>29420.2032042662</v>
+        <v>29420.20320426619</v>
       </c>
       <c r="N5" t="n">
-        <v>29420.2032042662</v>
+        <v>29420.20320426619</v>
       </c>
       <c r="O5" t="n">
         <v>29420.2032042662</v>
       </c>
       <c r="P5" t="n">
-        <v>29420.20320426619</v>
+        <v>29420.20320426618</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11150.68203402852</v>
+        <v>2484.924539002743</v>
       </c>
       <c r="C6" t="n">
-        <v>-11150.68203402854</v>
+        <v>2484.924539002743</v>
       </c>
       <c r="D6" t="n">
-        <v>-11150.68203402854</v>
+        <v>2484.924539002743</v>
       </c>
       <c r="E6" t="n">
-        <v>-367695.4308113745</v>
+        <v>-356895.1938931442</v>
       </c>
       <c r="F6" t="n">
-        <v>72182.65446686692</v>
+        <v>99615.2874566089</v>
       </c>
       <c r="G6" t="n">
-        <v>75481.83012109438</v>
+        <v>59685.88495731144</v>
       </c>
       <c r="H6" t="n">
-        <v>94719.80953745032</v>
+        <v>106228.0501667185</v>
       </c>
       <c r="I6" t="n">
-        <v>36211.5754362068</v>
+        <v>53416.93763224842</v>
       </c>
       <c r="J6" t="n">
-        <v>105840.7404629453</v>
+        <v>115135.6841310217</v>
       </c>
       <c r="K6" t="n">
-        <v>105840.7404629454</v>
+        <v>115135.6841310217</v>
       </c>
       <c r="L6" t="n">
-        <v>105840.7404629453</v>
+        <v>115135.6841310217</v>
       </c>
       <c r="M6" t="n">
-        <v>66686.12149211536</v>
+        <v>75981.06516019166</v>
       </c>
       <c r="N6" t="n">
-        <v>102126.6371020803</v>
+        <v>115135.6841310217</v>
       </c>
       <c r="O6" t="n">
-        <v>102172.564323955</v>
+        <v>105735.2708003371</v>
       </c>
       <c r="P6" t="n">
-        <v>105840.7404629453</v>
+        <v>115135.6841310217</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>509.8291662011504</v>
+        <v>509.8291662011506</v>
       </c>
       <c r="F3" t="n">
-        <v>529.0996130086716</v>
+        <v>509.8291662011505</v>
       </c>
       <c r="G3" t="n">
-        <v>548.4699409129046</v>
+        <v>555.9209188943777</v>
       </c>
       <c r="H3" t="n">
-        <v>548.4699409129046</v>
+        <v>555.9209188943778</v>
       </c>
       <c r="I3" t="n">
         <v>614.0550137694783</v>
@@ -26770,13 +26770,13 @@
         <v>614.0550137694783</v>
       </c>
       <c r="M3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="N3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="O3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="P3" t="n">
         <v>614.0550137694781</v>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1187419577134</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="F4" t="n">
-        <v>172.2828658022268</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="G4" t="n">
-        <v>187.5255871663199</v>
+        <v>196.1811739886817</v>
       </c>
       <c r="H4" t="n">
-        <v>187.5255871663198</v>
+        <v>196.1811739886817</v>
       </c>
       <c r="I4" t="n">
         <v>263.7138800015061</v>
@@ -26819,19 +26819,19 @@
         <v>263.7138800015061</v>
       </c>
       <c r="L4" t="n">
+        <v>263.713880001506</v>
+      </c>
+      <c r="M4" t="n">
+        <v>263.713880001506</v>
+      </c>
+      <c r="N4" t="n">
+        <v>263.713880001506</v>
+      </c>
+      <c r="O4" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="M4" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="N4" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="O4" t="n">
-        <v>263.7138800015063</v>
-      </c>
       <c r="P4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015059</v>
       </c>
     </row>
   </sheetData>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>509.8291662011504</v>
+        <v>509.8291662011506</v>
       </c>
       <c r="F3" t="n">
-        <v>19.27044680752118</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19.37032790423302</v>
+        <v>46.09175269322719</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>65.58507285657367</v>
+        <v>58.13409487510046</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1187419577134</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="F4" t="n">
-        <v>15.1641238445134</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>15.24272136409317</v>
+        <v>39.06243203096821</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>76.1882928351863</v>
+        <v>67.53270601282446</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1187419577134</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="N4" t="n">
-        <v>15.16412384451334</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>15.24272136409334</v>
+        <v>39.06243203096844</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1187419577134</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="N4" t="n">
-        <v>15.1641238445134</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>15.24272136409317</v>
+        <v>39.06243203096821</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.049564487240804</v>
+        <v>2.049564487240805</v>
       </c>
       <c r="H11" t="n">
-        <v>20.99010230495489</v>
+        <v>20.9901023049549</v>
       </c>
       <c r="I11" t="n">
-        <v>79.01583489435117</v>
+        <v>79.0158348943512</v>
       </c>
       <c r="J11" t="n">
         <v>173.9542238989544</v>
       </c>
       <c r="K11" t="n">
-        <v>260.7122886438576</v>
+        <v>260.7122886438577</v>
       </c>
       <c r="L11" t="n">
-        <v>323.4366478202534</v>
+        <v>323.4366478202536</v>
       </c>
       <c r="M11" t="n">
-        <v>359.8855902702221</v>
+        <v>359.8855902702222</v>
       </c>
       <c r="N11" t="n">
-        <v>365.708915369595</v>
+        <v>365.7089153695952</v>
       </c>
       <c r="O11" t="n">
-        <v>345.3285584995943</v>
+        <v>345.3285584995944</v>
       </c>
       <c r="P11" t="n">
-        <v>294.7299352208369</v>
+        <v>294.729935220837</v>
       </c>
       <c r="Q11" t="n">
-        <v>221.3299070215255</v>
+        <v>221.3299070215256</v>
       </c>
       <c r="R11" t="n">
         <v>128.7459552216403</v>
       </c>
       <c r="S11" t="n">
-        <v>46.70445075299987</v>
+        <v>46.70445075299989</v>
       </c>
       <c r="T11" t="n">
-        <v>8.971968542896624</v>
+        <v>8.971968542896628</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1639651589792643</v>
+        <v>0.1639651589792644</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.096613678243984</v>
       </c>
       <c r="H12" t="n">
-        <v>10.59097947146163</v>
+        <v>10.59097947146164</v>
       </c>
       <c r="I12" t="n">
-        <v>37.75621655357576</v>
+        <v>37.75621655357578</v>
       </c>
       <c r="J12" t="n">
         <v>103.605944048481</v>
@@ -31846,34 +31846,34 @@
         <v>177.0790604908279</v>
       </c>
       <c r="L12" t="n">
-        <v>238.1046497432826</v>
+        <v>238.1046497432827</v>
       </c>
       <c r="M12" t="n">
-        <v>277.8568955796269</v>
+        <v>277.8568955796271</v>
       </c>
       <c r="N12" t="n">
-        <v>285.2109408166228</v>
+        <v>285.210940816623</v>
       </c>
       <c r="O12" t="n">
-        <v>260.9122903671114</v>
+        <v>260.9122903671115</v>
       </c>
       <c r="P12" t="n">
-        <v>209.4051154534499</v>
+        <v>209.40511545345</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>139.9817740860216</v>
       </c>
       <c r="R12" t="n">
-        <v>68.08624223342913</v>
+        <v>68.08624223342916</v>
       </c>
       <c r="S12" t="n">
         <v>20.36911810247048</v>
       </c>
       <c r="T12" t="n">
-        <v>4.42012267678167</v>
+        <v>4.420122676781672</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07214563672657791</v>
+        <v>0.07214563672657795</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9193640701987956</v>
+        <v>0.9193640701987961</v>
       </c>
       <c r="H13" t="n">
-        <v>8.173982369585662</v>
+        <v>8.173982369585666</v>
       </c>
       <c r="I13" t="n">
-        <v>27.64778494743288</v>
+        <v>27.64778494743289</v>
       </c>
       <c r="J13" t="n">
-        <v>64.99903976305485</v>
+        <v>64.99903976305488</v>
       </c>
       <c r="K13" t="n">
         <v>106.8133892467328</v>
@@ -31928,31 +31928,31 @@
         <v>136.6843636730101</v>
       </c>
       <c r="M13" t="n">
-        <v>144.114496931253</v>
+        <v>144.1144969312531</v>
       </c>
       <c r="N13" t="n">
-        <v>140.6877763059667</v>
+        <v>140.6877763059668</v>
       </c>
       <c r="O13" t="n">
-        <v>129.947932395008</v>
+        <v>129.9479323950081</v>
       </c>
       <c r="P13" t="n">
         <v>111.1929053629525</v>
       </c>
       <c r="Q13" t="n">
-        <v>76.9842040963737</v>
+        <v>76.98420409637374</v>
       </c>
       <c r="R13" t="n">
-        <v>41.3379517382113</v>
+        <v>41.33795173821131</v>
       </c>
       <c r="S13" t="n">
         <v>16.02200838700992</v>
       </c>
       <c r="T13" t="n">
-        <v>3.928191936303944</v>
+        <v>3.928191936303946</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05014713110175255</v>
+        <v>0.05014713110175257</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.127033620135361</v>
+        <v>2.049564487240804</v>
       </c>
       <c r="H14" t="n">
-        <v>21.78348306221127</v>
+        <v>20.9901023049549</v>
       </c>
       <c r="I14" t="n">
-        <v>82.0024636402686</v>
+        <v>79.01583489435119</v>
       </c>
       <c r="J14" t="n">
-        <v>180.5293197169638</v>
+        <v>173.9542238989544</v>
       </c>
       <c r="K14" t="n">
-        <v>270.5666528572937</v>
+        <v>260.7122886438577</v>
       </c>
       <c r="L14" t="n">
-        <v>335.6618580095113</v>
+        <v>323.4366478202535</v>
       </c>
       <c r="M14" t="n">
-        <v>373.4884921515936</v>
+        <v>359.8855902702222</v>
       </c>
       <c r="N14" t="n">
-        <v>379.5319264248032</v>
+        <v>365.7089153695951</v>
       </c>
       <c r="O14" t="n">
-        <v>358.3812358645822</v>
+        <v>345.3285584995944</v>
       </c>
       <c r="P14" t="n">
-        <v>305.8700933674904</v>
+        <v>294.729935220837</v>
       </c>
       <c r="Q14" t="n">
-        <v>229.6957018463927</v>
+        <v>221.3299070215256</v>
       </c>
       <c r="R14" t="n">
-        <v>133.612275640828</v>
+        <v>128.7459552216403</v>
       </c>
       <c r="S14" t="n">
-        <v>48.4697786188346</v>
+        <v>46.70445075299988</v>
       </c>
       <c r="T14" t="n">
-        <v>9.311089672142549</v>
+        <v>8.971968542896626</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1701626896108289</v>
+        <v>0.1639651589792643</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.138063318546954</v>
+        <v>1.096613678243984</v>
       </c>
       <c r="H15" t="n">
-        <v>10.99129573438769</v>
+        <v>10.59097947146164</v>
       </c>
       <c r="I15" t="n">
-        <v>39.1833203973403</v>
+        <v>37.75621655357578</v>
       </c>
       <c r="J15" t="n">
-        <v>107.5220260737717</v>
+        <v>103.605944048481</v>
       </c>
       <c r="K15" t="n">
-        <v>183.7722684164176</v>
+        <v>177.0790604908279</v>
       </c>
       <c r="L15" t="n">
-        <v>247.104493792399</v>
+        <v>238.1046497432826</v>
       </c>
       <c r="M15" t="n">
-        <v>288.359289089726</v>
+        <v>277.856895579627</v>
       </c>
       <c r="N15" t="n">
-        <v>295.991301432087</v>
+        <v>285.2109408166229</v>
       </c>
       <c r="O15" t="n">
-        <v>270.7742142158623</v>
+        <v>260.9122903671114</v>
       </c>
       <c r="P15" t="n">
-        <v>217.3201787846372</v>
+        <v>209.4051154534499</v>
       </c>
       <c r="Q15" t="n">
-        <v>145.2727843113621</v>
+        <v>139.9817740860216</v>
       </c>
       <c r="R15" t="n">
-        <v>70.65975586557319</v>
+        <v>68.08624223342915</v>
       </c>
       <c r="S15" t="n">
-        <v>21.13902699143134</v>
+        <v>20.36911810247048</v>
       </c>
       <c r="T15" t="n">
-        <v>4.587193814669519</v>
+        <v>4.420122676781671</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07487258674651016</v>
+        <v>0.07214563672657794</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9541140562451453</v>
+        <v>0.9193640701987958</v>
       </c>
       <c r="H16" t="n">
-        <v>8.482941336434116</v>
+        <v>8.173982369585664</v>
       </c>
       <c r="I16" t="n">
-        <v>28.69281180053583</v>
+        <v>27.64778494743289</v>
       </c>
       <c r="J16" t="n">
-        <v>67.45586377653177</v>
+        <v>64.99903976305487</v>
       </c>
       <c r="K16" t="n">
-        <v>110.8507058073905</v>
+        <v>106.8133892467328</v>
       </c>
       <c r="L16" t="n">
-        <v>141.8507388712101</v>
+        <v>136.6843636730101</v>
       </c>
       <c r="M16" t="n">
-        <v>149.5617151985004</v>
+        <v>144.1144969312531</v>
       </c>
       <c r="N16" t="n">
-        <v>146.0054718979504</v>
+        <v>140.6877763059667</v>
       </c>
       <c r="O16" t="n">
-        <v>134.8596849681775</v>
+        <v>129.947932395008</v>
       </c>
       <c r="P16" t="n">
-        <v>115.3957582207764</v>
+        <v>111.1929053629525</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.8940415643094</v>
+        <v>76.98420409637372</v>
       </c>
       <c r="R16" t="n">
-        <v>42.9004374744408</v>
+        <v>41.3379517382113</v>
       </c>
       <c r="S16" t="n">
-        <v>16.62760587110857</v>
+        <v>16.02200838700992</v>
       </c>
       <c r="T16" t="n">
-        <v>4.076669149411074</v>
+        <v>3.928191936303945</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0520425848860989</v>
+        <v>0.05014713110175256</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.204904285077002</v>
+        <v>2.234857965404532</v>
       </c>
       <c r="H17" t="n">
-        <v>22.58097600954485</v>
+        <v>22.88773913819917</v>
       </c>
       <c r="I17" t="n">
-        <v>85.00457245043118</v>
+        <v>86.15936171125828</v>
       </c>
       <c r="J17" t="n">
-        <v>187.1384950655543</v>
+        <v>189.6807762412531</v>
       </c>
       <c r="K17" t="n">
-        <v>280.4720934528639</v>
+        <v>284.2823139168269</v>
       </c>
       <c r="L17" t="n">
-        <v>347.9504329672893</v>
+        <v>352.6773483755759</v>
       </c>
       <c r="M17" t="n">
-        <v>387.1618995470274</v>
+        <v>392.4215037178387</v>
       </c>
       <c r="N17" t="n">
-        <v>393.4265838470024</v>
+        <v>398.7712939120444</v>
       </c>
       <c r="O17" t="n">
-        <v>371.501566862268</v>
+        <v>376.5484250185531</v>
       </c>
       <c r="P17" t="n">
-        <v>317.0679923244294</v>
+        <v>321.3753689976286</v>
       </c>
       <c r="Q17" t="n">
-        <v>238.1048576151092</v>
+        <v>241.3395181115788</v>
       </c>
       <c r="R17" t="n">
-        <v>138.5038187974683</v>
+        <v>140.3853966693425</v>
       </c>
       <c r="S17" t="n">
-        <v>50.24425639619223</v>
+        <v>50.92682588665582</v>
       </c>
       <c r="T17" t="n">
-        <v>9.651968507924579</v>
+        <v>9.783090743558342</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1787886372323625</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.179727797435304</v>
+        <v>1.195754429319982</v>
       </c>
       <c r="H18" t="n">
-        <v>11.39368688575676</v>
+        <v>11.54847040948509</v>
       </c>
       <c r="I18" t="n">
-        <v>40.6178210959085</v>
+        <v>41.16961522000816</v>
       </c>
       <c r="J18" t="n">
-        <v>111.4584056340083</v>
+        <v>112.9725708858848</v>
       </c>
       <c r="K18" t="n">
-        <v>190.5001680621737</v>
+        <v>193.0881176503236</v>
       </c>
       <c r="L18" t="n">
-        <v>256.1509851405032</v>
+        <v>259.6308027345865</v>
       </c>
       <c r="M18" t="n">
-        <v>298.9161177975329</v>
+        <v>302.9769007974358</v>
       </c>
       <c r="N18" t="n">
-        <v>306.8275379829654</v>
+        <v>310.9957978256387</v>
       </c>
       <c r="O18" t="n">
-        <v>280.6872536292673</v>
+        <v>284.5003970496538</v>
       </c>
       <c r="P18" t="n">
-        <v>225.2762668628872</v>
+        <v>228.3366506304096</v>
       </c>
       <c r="Q18" t="n">
-        <v>150.5912184936715</v>
+        <v>152.6370039953016</v>
       </c>
       <c r="R18" t="n">
-        <v>73.24660833550075</v>
+        <v>74.24166535725296</v>
       </c>
       <c r="S18" t="n">
-        <v>21.9129264128882</v>
+        <v>22.21061407092158</v>
       </c>
       <c r="T18" t="n">
-        <v>4.755130902820369</v>
+        <v>4.819729476074839</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07866805456052518</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9890441557445819</v>
+        <v>1.002480345547238</v>
       </c>
       <c r="H19" t="n">
-        <v>8.793501675620016</v>
+        <v>8.912961617683635</v>
       </c>
       <c r="I19" t="n">
-        <v>29.74325515639162</v>
+        <v>30.1473180279115</v>
       </c>
       <c r="J19" t="n">
-        <v>69.92542181114193</v>
+        <v>70.87536043018974</v>
       </c>
       <c r="K19" t="n">
-        <v>114.9089482765069</v>
+        <v>116.4699892372155</v>
       </c>
       <c r="L19" t="n">
-        <v>147.0438920276991</v>
+        <v>149.041487009814</v>
       </c>
       <c r="M19" t="n">
-        <v>155.0371670682166</v>
+        <v>157.143350893373</v>
       </c>
       <c r="N19" t="n">
-        <v>151.3507297604415</v>
+        <v>153.406833241788</v>
       </c>
       <c r="O19" t="n">
-        <v>139.7968957592433</v>
+        <v>141.6960401142588</v>
       </c>
       <c r="P19" t="n">
-        <v>119.6203949820538</v>
+        <v>121.245441065095</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.81896107784858</v>
+        <v>83.94405875305102</v>
       </c>
       <c r="R19" t="n">
-        <v>44.4710217664791</v>
+        <v>45.07516171887854</v>
       </c>
       <c r="S19" t="n">
-        <v>17.23634224147603</v>
+        <v>17.47049838558232</v>
       </c>
       <c r="T19" t="n">
-        <v>4.225915938181394</v>
+        <v>4.283325112792745</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05468074612075852</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.204904285077002</v>
+        <v>2.234857965404532</v>
       </c>
       <c r="H20" t="n">
-        <v>22.58097600954485</v>
+        <v>22.88773913819917</v>
       </c>
       <c r="I20" t="n">
-        <v>85.00457245043118</v>
+        <v>86.15936171125831</v>
       </c>
       <c r="J20" t="n">
-        <v>187.1384950655543</v>
+        <v>189.6807762412531</v>
       </c>
       <c r="K20" t="n">
-        <v>280.4720934528639</v>
+        <v>284.282313916827</v>
       </c>
       <c r="L20" t="n">
-        <v>347.9504329672893</v>
+        <v>352.677348375576</v>
       </c>
       <c r="M20" t="n">
-        <v>387.1618995470274</v>
+        <v>392.4215037178388</v>
       </c>
       <c r="N20" t="n">
-        <v>393.4265838470024</v>
+        <v>398.7712939120445</v>
       </c>
       <c r="O20" t="n">
-        <v>371.501566862268</v>
+        <v>376.5484250185531</v>
       </c>
       <c r="P20" t="n">
-        <v>317.0679923244294</v>
+        <v>321.3753689976287</v>
       </c>
       <c r="Q20" t="n">
-        <v>238.1048576151092</v>
+        <v>241.3395181115788</v>
       </c>
       <c r="R20" t="n">
-        <v>138.5038187974683</v>
+        <v>140.3853966693426</v>
       </c>
       <c r="S20" t="n">
-        <v>50.24425639619223</v>
+        <v>50.92682588665583</v>
       </c>
       <c r="T20" t="n">
-        <v>9.651968507924579</v>
+        <v>9.783090743558345</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1787886372323625</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.179727797435304</v>
+        <v>1.195754429319982</v>
       </c>
       <c r="H21" t="n">
-        <v>11.39368688575676</v>
+        <v>11.54847040948509</v>
       </c>
       <c r="I21" t="n">
-        <v>40.6178210959085</v>
+        <v>41.16961522000818</v>
       </c>
       <c r="J21" t="n">
-        <v>111.4584056340083</v>
+        <v>112.9725708858848</v>
       </c>
       <c r="K21" t="n">
-        <v>190.5001680621737</v>
+        <v>193.0881176503237</v>
       </c>
       <c r="L21" t="n">
-        <v>256.1509851405032</v>
+        <v>259.6308027345866</v>
       </c>
       <c r="M21" t="n">
-        <v>298.9161177975329</v>
+        <v>302.9769007974359</v>
       </c>
       <c r="N21" t="n">
-        <v>306.8275379829654</v>
+        <v>310.9957978256388</v>
       </c>
       <c r="O21" t="n">
-        <v>280.6872536292673</v>
+        <v>284.5003970496539</v>
       </c>
       <c r="P21" t="n">
-        <v>225.2762668628872</v>
+        <v>228.3366506304097</v>
       </c>
       <c r="Q21" t="n">
-        <v>150.5912184936715</v>
+        <v>152.6370039953016</v>
       </c>
       <c r="R21" t="n">
-        <v>73.24660833550075</v>
+        <v>74.24166535725297</v>
       </c>
       <c r="S21" t="n">
-        <v>21.9129264128882</v>
+        <v>22.21061407092159</v>
       </c>
       <c r="T21" t="n">
-        <v>4.755130902820369</v>
+        <v>4.81972947607484</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.0786680545605252</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9890441557445819</v>
+        <v>1.002480345547238</v>
       </c>
       <c r="H22" t="n">
-        <v>8.793501675620016</v>
+        <v>8.912961617683637</v>
       </c>
       <c r="I22" t="n">
-        <v>29.74325515639162</v>
+        <v>30.14731802791151</v>
       </c>
       <c r="J22" t="n">
-        <v>69.92542181114193</v>
+        <v>70.87536043018976</v>
       </c>
       <c r="K22" t="n">
-        <v>114.9089482765069</v>
+        <v>116.4699892372155</v>
       </c>
       <c r="L22" t="n">
-        <v>147.0438920276991</v>
+        <v>149.041487009814</v>
       </c>
       <c r="M22" t="n">
-        <v>155.0371670682166</v>
+        <v>157.143350893373</v>
       </c>
       <c r="N22" t="n">
-        <v>151.3507297604415</v>
+        <v>153.406833241788</v>
       </c>
       <c r="O22" t="n">
-        <v>139.7968957592433</v>
+        <v>141.6960401142588</v>
       </c>
       <c r="P22" t="n">
-        <v>119.6203949820538</v>
+        <v>121.2454410650951</v>
       </c>
       <c r="Q22" t="n">
-        <v>82.81896107784858</v>
+        <v>83.94405875305104</v>
       </c>
       <c r="R22" t="n">
-        <v>44.4710217664791</v>
+        <v>45.07516171887855</v>
       </c>
       <c r="S22" t="n">
-        <v>17.23634224147603</v>
+        <v>17.47049838558232</v>
       </c>
       <c r="T22" t="n">
-        <v>4.225915938181394</v>
+        <v>4.283325112792745</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05468074612075853</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33654,16 +33654,16 @@
         <v>25.28116948649916</v>
       </c>
       <c r="I35" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350879</v>
       </c>
       <c r="J35" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K35" t="n">
         <v>314.0104541016252</v>
       </c>
       <c r="L35" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167917</v>
       </c>
       <c r="M35" t="n">
         <v>433.4580399459292</v>
@@ -33672,25 +33672,25 @@
         <v>440.4718441986831</v>
       </c>
       <c r="O35" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P35" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q35" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R35" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S35" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702306</v>
       </c>
       <c r="T35" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H36" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I36" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990947</v>
       </c>
       <c r="J36" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K36" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L36" t="n">
         <v>286.7810703458304</v>
       </c>
       <c r="M36" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N36" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O36" t="n">
         <v>314.2513427542725</v>
       </c>
       <c r="P36" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q36" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R36" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736543</v>
       </c>
       <c r="S36" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T36" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944813</v>
       </c>
       <c r="U36" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.0868945774202092</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,22 +33806,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H37" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582787</v>
       </c>
       <c r="I37" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244974</v>
       </c>
       <c r="J37" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779067</v>
       </c>
       <c r="K37" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L37" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M37" t="n">
         <v>173.576239384051</v>
@@ -33833,19 +33833,19 @@
         <v>156.513563181768</v>
       </c>
       <c r="P37" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q37" t="n">
-        <v>92.72230707919121</v>
+        <v>92.7223070791912</v>
       </c>
       <c r="R37" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350554</v>
       </c>
       <c r="S37" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T37" t="n">
-        <v>4.731243548715651</v>
+        <v>4.73124354871565</v>
       </c>
       <c r="U37" t="n">
         <v>0.06039885381339136</v>
@@ -33891,16 +33891,16 @@
         <v>25.28116948649916</v>
       </c>
       <c r="I38" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350879</v>
       </c>
       <c r="J38" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K38" t="n">
         <v>314.0104541016252</v>
       </c>
       <c r="L38" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167917</v>
       </c>
       <c r="M38" t="n">
         <v>433.4580399459292</v>
@@ -33909,25 +33909,25 @@
         <v>440.4718441986831</v>
       </c>
       <c r="O38" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P38" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q38" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R38" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S38" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702306</v>
       </c>
       <c r="T38" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H39" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I39" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990947</v>
       </c>
       <c r="J39" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K39" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L39" t="n">
         <v>286.7810703458304</v>
       </c>
       <c r="M39" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N39" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O39" t="n">
         <v>314.2513427542725</v>
       </c>
       <c r="P39" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q39" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R39" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736543</v>
       </c>
       <c r="S39" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T39" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944813</v>
       </c>
       <c r="U39" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.0868945774202092</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,22 +34043,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H40" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582787</v>
       </c>
       <c r="I40" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244974</v>
       </c>
       <c r="J40" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779067</v>
       </c>
       <c r="K40" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L40" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M40" t="n">
         <v>173.576239384051</v>
@@ -34070,19 +34070,19 @@
         <v>156.513563181768</v>
       </c>
       <c r="P40" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q40" t="n">
-        <v>92.72230707919121</v>
+        <v>92.7223070791912</v>
       </c>
       <c r="R40" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350554</v>
       </c>
       <c r="S40" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T40" t="n">
-        <v>4.731243548715651</v>
+        <v>4.73124354871565</v>
       </c>
       <c r="U40" t="n">
         <v>0.06039885381339136</v>
@@ -34128,16 +34128,16 @@
         <v>25.28116948649916</v>
       </c>
       <c r="I41" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350879</v>
       </c>
       <c r="J41" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K41" t="n">
         <v>314.0104541016252</v>
       </c>
       <c r="L41" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167917</v>
       </c>
       <c r="M41" t="n">
         <v>433.4580399459292</v>
@@ -34146,25 +34146,25 @@
         <v>440.4718441986831</v>
       </c>
       <c r="O41" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P41" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q41" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R41" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S41" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702306</v>
       </c>
       <c r="T41" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H42" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I42" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990947</v>
       </c>
       <c r="J42" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K42" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L42" t="n">
         <v>286.7810703458304</v>
       </c>
       <c r="M42" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N42" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O42" t="n">
         <v>314.2513427542725</v>
       </c>
       <c r="P42" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q42" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R42" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736543</v>
       </c>
       <c r="S42" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T42" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944813</v>
       </c>
       <c r="U42" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.0868945774202092</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,22 +34280,22 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H43" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582787</v>
       </c>
       <c r="I43" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244974</v>
       </c>
       <c r="J43" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779067</v>
       </c>
       <c r="K43" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L43" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M43" t="n">
         <v>173.576239384051</v>
@@ -34307,19 +34307,19 @@
         <v>156.513563181768</v>
       </c>
       <c r="P43" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q43" t="n">
-        <v>92.72230707919121</v>
+        <v>92.7223070791912</v>
       </c>
       <c r="R43" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350554</v>
       </c>
       <c r="S43" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T43" t="n">
-        <v>4.731243548715651</v>
+        <v>4.73124354871565</v>
       </c>
       <c r="U43" t="n">
         <v>0.06039885381339136</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>49.27157002398982</v>
       </c>
       <c r="K11" t="n">
-        <v>40.62243759887707</v>
+        <v>40.62243759887718</v>
       </c>
       <c r="L11" t="n">
-        <v>87.67023285026619</v>
+        <v>87.67023285026636</v>
       </c>
       <c r="M11" t="n">
-        <v>129.5393570429493</v>
+        <v>129.5393570429495</v>
       </c>
       <c r="N11" t="n">
-        <v>136.2958517730041</v>
+        <v>136.2958517730043</v>
       </c>
       <c r="O11" t="n">
-        <v>115.2303470779076</v>
+        <v>115.2303470779077</v>
       </c>
       <c r="P11" t="n">
-        <v>63.49693946556732</v>
+        <v>63.49693946556749</v>
       </c>
       <c r="Q11" t="n">
-        <v>49.27157002399037</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.23762151646889</v>
+        <v>39.23762151646895</v>
       </c>
       <c r="L12" t="n">
-        <v>99.5502699634084</v>
+        <v>99.55026996340848</v>
       </c>
       <c r="M12" t="n">
-        <v>135.7228616576086</v>
+        <v>135.7228616576087</v>
       </c>
       <c r="N12" t="n">
-        <v>153.8692287332895</v>
+        <v>153.8692287332896</v>
       </c>
       <c r="O12" t="n">
-        <v>118.3160459226669</v>
+        <v>118.3160459226671</v>
       </c>
       <c r="P12" t="n">
-        <v>75.43070803911962</v>
+        <v>75.43070803911974</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35570,19 +35570,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>84.54389742084993</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>157.1187419577134</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="M13" t="n">
-        <v>114.8738898684394</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="N13" t="n">
-        <v>157.1187419577134</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>42.2990453315761</v>
       </c>
       <c r="P13" t="n">
         <v>108.471464627846</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>49.27157002399034</v>
       </c>
       <c r="K14" t="n">
-        <v>50.47680181231317</v>
+        <v>40.62243759887713</v>
       </c>
       <c r="L14" t="n">
-        <v>99.89544303952408</v>
+        <v>87.6702328502663</v>
       </c>
       <c r="M14" t="n">
-        <v>143.1422589243208</v>
+        <v>129.5393570429494</v>
       </c>
       <c r="N14" t="n">
-        <v>150.1188628282123</v>
+        <v>136.2958517730042</v>
       </c>
       <c r="O14" t="n">
-        <v>128.2830244428954</v>
+        <v>115.2303470779076</v>
       </c>
       <c r="P14" t="n">
-        <v>102.864136318901</v>
+        <v>63.49693946556744</v>
       </c>
       <c r="Q14" t="n">
-        <v>7.390011971943181</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>45.93082944205858</v>
+        <v>39.23762151646892</v>
       </c>
       <c r="L15" t="n">
-        <v>108.5501140125248</v>
+        <v>99.55026996340843</v>
       </c>
       <c r="M15" t="n">
-        <v>146.2252551677076</v>
+        <v>135.7228616576086</v>
       </c>
       <c r="N15" t="n">
-        <v>164.6495893487537</v>
+        <v>153.8692287332896</v>
       </c>
       <c r="O15" t="n">
-        <v>128.1779697714179</v>
+        <v>118.316045922667</v>
       </c>
       <c r="P15" t="n">
-        <v>83.34577137030698</v>
+        <v>75.43070803911968</v>
       </c>
       <c r="Q15" t="n">
-        <v>5.291010225340557</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.719230719913027</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>169.4407641315262</v>
+        <v>44.88472698024182</v>
       </c>
       <c r="M16" t="n">
-        <v>172.2828658022268</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="N16" t="n">
-        <v>172.2828658022268</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="O16" t="n">
-        <v>159.4448128822172</v>
+        <v>154.5330603090477</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>108.471464627846</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>6.092590538868052</v>
+        <v>8.634871714566771</v>
       </c>
       <c r="K17" t="n">
-        <v>60.38224240788333</v>
+        <v>64.19246287184637</v>
       </c>
       <c r="L17" t="n">
-        <v>112.184017997302</v>
+        <v>116.9109334055887</v>
       </c>
       <c r="M17" t="n">
-        <v>156.8156663197546</v>
+        <v>162.075270490566</v>
       </c>
       <c r="N17" t="n">
-        <v>164.0135202504115</v>
+        <v>169.3582303154535</v>
       </c>
       <c r="O17" t="n">
-        <v>141.4033554405812</v>
+        <v>146.4502135968663</v>
       </c>
       <c r="P17" t="n">
-        <v>85.8349965691599</v>
+        <v>90.1423732423591</v>
       </c>
       <c r="Q17" t="n">
-        <v>15.79916774065975</v>
+        <v>19.03382823712931</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>52.65872908781469</v>
+        <v>55.24667867596463</v>
       </c>
       <c r="L18" t="n">
-        <v>117.596605360629</v>
+        <v>121.0764229547123</v>
       </c>
       <c r="M18" t="n">
-        <v>156.7820838755146</v>
+        <v>160.8428668754175</v>
       </c>
       <c r="N18" t="n">
-        <v>175.4858258996321</v>
+        <v>179.6540857423054</v>
       </c>
       <c r="O18" t="n">
-        <v>138.0910091848229</v>
+        <v>141.9041526052094</v>
       </c>
       <c r="P18" t="n">
-        <v>91.30185944855694</v>
+        <v>94.36224321607935</v>
       </c>
       <c r="Q18" t="n">
-        <v>10.60944440764996</v>
+        <v>23.71173380468743</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,19 +36044,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>92.63945645062401</v>
+        <v>94.20049741133263</v>
       </c>
       <c r="L19" t="n">
-        <v>110.4529028080734</v>
+        <v>176.6315122701301</v>
       </c>
       <c r="M19" t="n">
-        <v>187.5255871663199</v>
+        <v>196.1811739886817</v>
       </c>
       <c r="N19" t="n">
-        <v>187.5255871663199</v>
+        <v>143.503832175933</v>
       </c>
       <c r="O19" t="n">
-        <v>164.382023673283</v>
+        <v>166.2811680282985</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>6.092590538868052</v>
+        <v>8.634871714566799</v>
       </c>
       <c r="K20" t="n">
-        <v>60.38224240788333</v>
+        <v>64.19246287184643</v>
       </c>
       <c r="L20" t="n">
-        <v>112.184017997302</v>
+        <v>116.9109334055888</v>
       </c>
       <c r="M20" t="n">
-        <v>156.8156663197546</v>
+        <v>162.0752704905661</v>
       </c>
       <c r="N20" t="n">
-        <v>164.0135202504115</v>
+        <v>169.3582303154536</v>
       </c>
       <c r="O20" t="n">
-        <v>141.4033554405812</v>
+        <v>146.4502135968664</v>
       </c>
       <c r="P20" t="n">
-        <v>85.8349965691599</v>
+        <v>90.14237324235916</v>
       </c>
       <c r="Q20" t="n">
-        <v>15.79916774065975</v>
+        <v>19.03382823712934</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>52.65872908781469</v>
+        <v>66.30318257137161</v>
       </c>
       <c r="L21" t="n">
-        <v>117.596605360629</v>
+        <v>121.0764229547124</v>
       </c>
       <c r="M21" t="n">
-        <v>156.7820838755146</v>
+        <v>160.8428668754175</v>
       </c>
       <c r="N21" t="n">
-        <v>175.4858258996321</v>
+        <v>179.6540857423055</v>
       </c>
       <c r="O21" t="n">
-        <v>138.0910091848229</v>
+        <v>141.9041526052094</v>
       </c>
       <c r="P21" t="n">
-        <v>91.30185944855694</v>
+        <v>94.36224321607941</v>
       </c>
       <c r="Q21" t="n">
-        <v>10.60944440764996</v>
+        <v>12.65522990928011</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>92.63945645062401</v>
+        <v>94.20049741133265</v>
       </c>
       <c r="L22" t="n">
-        <v>12.15921574646077</v>
+        <v>176.6315122701301</v>
       </c>
       <c r="M22" t="n">
-        <v>187.5255871663198</v>
+        <v>196.1811739886817</v>
       </c>
       <c r="N22" t="n">
-        <v>187.5255871663198</v>
+        <v>196.1811739886817</v>
       </c>
       <c r="O22" t="n">
-        <v>145.7767564879483</v>
+        <v>113.6038262155498</v>
       </c>
       <c r="P22" t="n">
-        <v>116.8989542469472</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L24" t="n">
         <v>148.2266905659562</v>
@@ -36454,7 +36454,7 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P24" t="n">
-        <v>215.5616691250133</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q24" t="n">
         <v>28.61687799649638</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L25" t="n">
         <v>192.2171678043497</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>75.43840481763047</v>
@@ -36694,7 +36694,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36773,7 +36773,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496654</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>28.4702833121771</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K29" t="n">
         <v>93.92060305664467</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L30" t="n">
         <v>148.2266905659562</v>
@@ -37007,7 +37007,7 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P31" t="n">
-        <v>131.2029511204531</v>
+        <v>131.2029511204529</v>
       </c>
       <c r="Q31" t="n">
         <v>6.560263827496826</v>
@@ -37168,7 +37168,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q33" t="n">
-        <v>125.9385470877688</v>
+        <v>125.9385470877683</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217703</v>
       </c>
       <c r="K35" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664461</v>
       </c>
       <c r="L35" t="n">
         <v>153.7913200468045</v>
       </c>
       <c r="M35" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186564</v>
       </c>
       <c r="N35" t="n">
         <v>211.0587806020922</v>
       </c>
       <c r="O35" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441511</v>
       </c>
       <c r="P35" t="n">
         <v>123.7494305716377</v>
       </c>
       <c r="Q35" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117352</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>97.32166909127238</v>
       </c>
       <c r="K36" t="n">
-        <v>75.43840481763047</v>
+        <v>75.43840481763041</v>
       </c>
       <c r="L36" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M36" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N36" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O36" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P36" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649636</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37481,10 +37481,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P37" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496811</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217703</v>
       </c>
       <c r="K38" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664461</v>
       </c>
       <c r="L38" t="n">
         <v>153.7913200468045</v>
       </c>
       <c r="M38" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186564</v>
       </c>
       <c r="N38" t="n">
         <v>211.0587806020922</v>
       </c>
       <c r="O38" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441511</v>
       </c>
       <c r="P38" t="n">
         <v>123.7494305716377</v>
       </c>
       <c r="Q38" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117352</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>75.43840481763047</v>
+        <v>75.43840481763041</v>
       </c>
       <c r="L39" t="n">
-        <v>245.5483596572284</v>
+        <v>245.5483596572286</v>
       </c>
       <c r="M39" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N39" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O39" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P39" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649636</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37715,13 +37715,13 @@
         <v>213.581156752698</v>
       </c>
       <c r="O40" t="n">
-        <v>181.0986910958077</v>
+        <v>181.0986910958074</v>
       </c>
       <c r="P40" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.560263827496425</v>
+        <v>6.560263827496811</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217703</v>
       </c>
       <c r="K41" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664461</v>
       </c>
       <c r="L41" t="n">
         <v>153.7913200468045</v>
       </c>
       <c r="M41" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186564</v>
       </c>
       <c r="N41" t="n">
         <v>211.0587806020922</v>
       </c>
       <c r="O41" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441511</v>
       </c>
       <c r="P41" t="n">
         <v>123.7494305716377</v>
       </c>
       <c r="Q41" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117352</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>97.32166909127284</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>75.43840481763047</v>
+        <v>75.43840481763041</v>
       </c>
       <c r="L42" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M42" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="N42" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O42" t="n">
-        <v>171.6550983098281</v>
+        <v>197.7888359819419</v>
       </c>
       <c r="P42" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649636</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37955,10 +37955,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P43" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q43" t="n">
-        <v>6.560263827497113</v>
+        <v>6.560263827496884</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>97.32166909127261</v>
+        <v>97.32166909127194</v>
       </c>
       <c r="K45" t="n">
         <v>75.43840481763041</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966397</v>
       </c>
       <c r="L46" t="n">
         <v>192.2171678043497</v>
@@ -38195,7 +38195,7 @@
         <v>131.202951120453</v>
       </c>
       <c r="Q46" t="n">
-        <v>6.560263827496654</v>
+        <v>6.560263827496811</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
